--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>$2,840.94 - 30.00% OMF</t>
   </si>
@@ -46,16 +46,16 @@
     <t>  [163,604.22] - Total</t>
   </si>
   <si>
-    <t>  </t>
-  </si>
-  <si>
-    <t>  *-*-*-* </t>
+    <t> </t>
+  </si>
+  <si>
+    <t>  *-*-*-*</t>
   </si>
   <si>
     <t>     $119,896.14 -  4.00% Chase</t>
   </si>
   <si>
-    <t>     </t>
+    <t>    </t>
   </si>
   <si>
     <t>   [43,708.08] - No mort</t>
@@ -67,7 +67,7 @@
     <t>     </t>
   </si>
   <si>
-    <t>   [28,756.96] - immediate </t>
+    <t>   [28,756.96] - immediate</t>
   </si>
   <si>
     <t>     $2,840.94 - 30.00% OMF</t>
@@ -82,7 +82,7 @@
     <t>     $8,208.87 -  8.45% CarmaxSilver</t>
   </si>
   <si>
-    <t>     $4,564.23 -  0.00% Conns   </t>
+    <t>     $4,564.23 -  0.00% Conns  </t>
   </si>
   <si>
     <t>///**********</t>
@@ -91,26 +91,11 @@
     <t>TODAY,</t>
   </si>
   <si>
-    <t>              $2322.09 At Bank – gas</t>
-  </si>
-  <si>
-    <t>-1125.00 - Mortgage (beg)</t>
-  </si>
-  <si>
-    <t>-  76.00 - Conns (mid) (Bed) 18th</t>
-  </si>
-  <si>
-    <t>- 350.00 - Bank of America (beg) </t>
-  </si>
-  <si>
-    <t>    |_  $25 Netflix|Hulu {CC}</t>
-  </si>
-  <si>
-    <t>    |_ $175 Verizon (mid) {CC} 16th</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    |_    $35 Comcast (internet) (mid) {CC} 24th</t>
+    <t>At Bank</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-1125.00 - Mortgage (beg)</t>
     </r>
     <r>
       <rPr>
@@ -123,16 +108,100 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">-  77.00 - Conns (mid) (Bed) 18th</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="HelveticaNeue"/>
+        <family val="0"/>
+        <color rgb="00FF0000"/>
+        <sz val="16"/>
+      </rPr>
+      <t xml:space="preserve">*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- 350.00 - Bank of America (beg)</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="HelveticaNeue"/>
+        <family val="0"/>
+        <color rgb="00FF0000"/>
+        <sz val="16"/>
+      </rPr>
+      <t xml:space="preserve">*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    |_  $25 Netflix|Hulu {CC}</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="HelveticaNeue"/>
+        <family val="0"/>
+        <color rgb="00FF0000"/>
+        <sz val="16"/>
+      </rPr>
+      <t xml:space="preserve">*</t>
+    </r>
+  </si>
+  <si>
+    <t>    |_ $175 Verizon (mid) {CC} 16th</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    |_    $35 Comcast (internet) (mid) {CC} 24th</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="HelveticaNeue"/>
+        <family val="0"/>
+        <color rgb="00FF0000"/>
+        <sz val="16"/>
+      </rPr>
+      <t xml:space="preserve">*</t>
+    </r>
+  </si>
+  <si>
     <t>    |_  $50 TXEnergy - light (beg) {CC} 25th</t>
   </si>
   <si>
     <t>- 224.00 - Farmers (mid) 19th</t>
   </si>
   <si>
-    <t>- 266.00 - Carmax (mid) 17th</t>
-  </si>
-  <si>
-    <t>-  71.00 - Conns (mid) (Sofa) 20th - paid by cash</t>
+    <r>
+      <t xml:space="preserve">- 199.95 - Carmax (mid) 17th</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="HelveticaNeue"/>
+        <family val="0"/>
+        <color rgb="00FF0000"/>
+        <sz val="16"/>
+      </rPr>
+      <t xml:space="preserve">*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-  71.00 - Conns (mid) (Sofa) 20th - paid by cash</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="HelveticaNeue"/>
+        <family val="0"/>
+        <color rgb="00FF0000"/>
+        <sz val="16"/>
+      </rPr>
+      <t xml:space="preserve">*</t>
+    </r>
+  </si>
+  <si>
+    <t>- individual expenses</t>
   </si>
   <si>
     <t>- 150.00 - Nelnet (beg)</t>
@@ -145,9 +214,6 @@
   </si>
   <si>
     <t>  XXXXXX</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t>On Dec 20th</t>
@@ -220,7 +286,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -244,20 +310,26 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
     <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
     <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Normal" xfId="20"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -267,399 +339,411 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:C56"/>
+  <dimension ref="B2:C57"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="61.7725490196079"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.7725490196079"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="62.078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="62.078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="1" width="11.6745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="2">
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>2840.94</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="3">
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="4">
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>8142.92</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="5">
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>8208.87</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="6">
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>119896.14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="7">
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>14951.12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="8">
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>4564.23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="9">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="10">
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <f aca="false">SUM(B2:B8)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="11">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="12">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="13">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="14">
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <f aca="false">SUM(B2:B8)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="15">
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <f aca="false">B6</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="16">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="17">
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <f aca="false">B14-B15</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="18">
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <f aca="false">B7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="19">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="20">
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="21">
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <f aca="false">B17-B18</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="22">
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <f aca="false">B2</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="23">
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <f aca="false">B3</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="24">
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <f aca="false">B4</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="25">
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <f aca="false">B5</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="26">
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <f aca="false">B8</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="27">
-      <c r="C27" s="2"/>
+      <c r="C27" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="28">
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="29">
-      <c r="C29" s="2"/>
+      <c r="C29" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="30">
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="31">
-      <c r="B31" s="1" t="n">
-        <v>2299.93</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="2" t="n">
+        <v>317.89</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="32">
-      <c r="B32" s="1" t="n">
-        <v>1122.31</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="33">
-      <c r="B33" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="C33" s="2" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="33">
+      <c r="B33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="34">
-      <c r="B34" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="35">
-      <c r="C35" s="2" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="35">
+      <c r="C35" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="36">
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="37">
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="38">
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="39">
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="40">
-      <c r="B40" s="1" t="n">
-        <v>199.95</v>
-      </c>
-      <c r="C40" s="2" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="40">
+      <c r="B40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="41">
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="10.4" outlineLevel="0" r="42">
-      <c r="C42" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.9" outlineLevel="0" r="43">
-      <c r="C43" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="44">
-      <c r="B44" s="1" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="42">
+      <c r="B42" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="10.4" outlineLevel="0" r="43">
+      <c r="B43" s="2" t="n">
+        <v>-150</v>
+      </c>
+      <c r="C43" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.9" outlineLevel="0" r="44">
+      <c r="B44" s="2" t="n">
+        <v>-171</v>
+      </c>
+      <c r="C44" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="45">
+      <c r="B45" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="45">
-      <c r="B45" s="1" t="n">
+      <c r="C45" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="46">
+      <c r="B46" s="2" t="n">
         <v>171</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="46">
-      <c r="B46" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="47">
-      <c r="C47" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>37</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47" s="1"/>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="48">
-      <c r="B48" s="1" t="inlineStr">
-        <f aca="false">B31-SUM(B32:B46)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="49">
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="2" t="inlineStr">
+        <f aca="false">B31-SUM(B32:B47)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="50">
-      <c r="C50" s="2" t="s">
-        <v>39</v>
+      <c r="C50" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="51">
-      <c r="C51" s="2" t="s">
-        <v>39</v>
+      <c r="C51" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="52">
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="53">
+      <c r="C53" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="53">
-      <c r="C53" s="2"/>
-    </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="54">
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="55">
+      <c r="C55" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="55">
-      <c r="C55" s="2" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="56">
+      <c r="C56" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="56">
-      <c r="C56" s="2" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="57">
+      <c r="C57" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -686,12 +770,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="11.6745098039216"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -711,12 +795,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="11.6745098039216"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -154,7 +154,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">    |_    $35 Comcast (internet) (mid) {CC} 24th</t>
+      <t xml:space="preserve">    |_  $35 Comcast (internet) (mid) {CC} 24th</t>
     </r>
     <r>
       <rPr>
@@ -167,7 +167,7 @@
     </r>
   </si>
   <si>
-    <t>    |_  $50 TXEnergy - light (beg) {CC} 25th</t>
+    <t>    |_  $65 TXEnergy - light (beg) {CC} 25th</t>
   </si>
   <si>
     <t>- 224.00 - Farmers (mid) 19th</t>
@@ -329,7 +329,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -346,10 +346,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.6745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="62.078431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="62.078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="1" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="62.6941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="62.6941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="1" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="2">
@@ -582,13 +582,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="31">
       <c r="B31" s="2" t="n">
-        <v>317.89</v>
+        <v>269.73</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="32">
       <c r="B32" s="2" t="n">
         <v>0</v>
       </c>
@@ -604,7 +604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="34">
       <c r="B34" s="2" t="n">
         <v>0</v>
       </c>
@@ -648,7 +648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="41">
       <c r="B41" s="2" t="n">
         <v>0</v>
       </c>
@@ -658,7 +658,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="42">
       <c r="B42" s="2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>35</v>
@@ -770,7 +770,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="11.7843137254902"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -795,7 +795,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="11.7843137254902"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>$2,840.94 - 30.00% OMF</t>
   </si>
@@ -71,9 +71,6 @@
     <t>     </t>
   </si>
   <si>
-    <t>   [28,756.96] - immediate</t>
-  </si>
-  <si>
     <t>     $2,840.94 - 30.00% OMF</t>
   </si>
   <si>
@@ -96,45 +93,6 @@
   </si>
   <si>
     <t>At Bank</t>
-  </si>
-  <si>
-    <r>
-      <t>-1125.00 - Mortgage (beg)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-  77.00 - Conns (mid) (Bed) 18th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>- 350.00 - Bank of America (beg)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>*</t>
-    </r>
   </si>
   <si>
     <r>
@@ -169,11 +127,50 @@
     <t>    |_  $65 TXEnergy - light (beg) {CC} 25th</t>
   </si>
   <si>
-    <t>- 224.00 - Farmers (mid) 19th</t>
+    <t>- individual expenses</t>
+  </si>
+  <si>
+    <t>/------- Projected Total</t>
+  </si>
+  <si>
+    <t>On Dec 20th</t>
+  </si>
+  <si>
+    <t>+++  $484.16 AC1</t>
+  </si>
+  <si>
+    <t>+++  $372.61 AC2</t>
+  </si>
+  <si>
+    <t>+++ -To clear $857.00</t>
+  </si>
+  <si>
+    <t>   [28,756.96] - immediate (No Mort and Nelnet)</t>
+  </si>
+  <si>
+    <t>$1100.00 - Marquis Rent 1st</t>
+  </si>
+  <si>
+    <t>$1125.00 - Mortgage (beg) 1st</t>
+  </si>
+  <si>
+    <t>$130.00 - OMF 1st</t>
+  </si>
+  <si>
+    <t>$150.00 - Nelnet (beg) 8th</t>
+  </si>
+  <si>
+    <t>$36.75 - Conns(beg) AC1 5th</t>
+  </si>
+  <si>
+    <t>$31.03 - Conns(beg) AC2 16th</t>
+  </si>
+  <si>
+    <t>$199.95 - CarmaxRed (mid) 17th*</t>
   </si>
   <si>
     <r>
-      <t>- 199.95 - Carmax (mid) 17th</t>
+      <t>$77.00 - Conns (mid) (Bed) 18th</t>
     </r>
     <r>
       <rPr>
@@ -185,8 +182,34 @@
     </r>
   </si>
   <si>
+    <t>$224.00 - Farmers (mid) 19th</t>
+  </si>
+  <si>
     <r>
-      <t>-  71.00 - Conns (mid) (Sofa) 20th - paid by cash</t>
+      <t>$71.00 - Conns (mid) Couches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="206"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t xml:space="preserve"> 20th - paid by cash*</t>
+    </r>
+  </si>
+  <si>
+    <t>$171.00 - CarmaxSilver (mid) 21st</t>
+  </si>
+  <si>
+    <r>
+      <t>$350.00 - Bank of America (beg)</t>
     </r>
     <r>
       <rPr>
@@ -198,41 +221,18 @@
     </r>
   </si>
   <si>
-    <t>- individual expenses</t>
-  </si>
-  <si>
-    <t>- 150.00 - Nelnet (beg)</t>
-  </si>
-  <si>
-    <t>- 171.00 - Carmax (mid) 21st</t>
-  </si>
-  <si>
-    <t>/------- Projected Total</t>
-  </si>
-  <si>
-    <t>  XXXXXX</t>
-  </si>
-  <si>
-    <t>On Dec 20th</t>
-  </si>
-  <si>
-    <t>+++  $484.16 AC1</t>
-  </si>
-  <si>
-    <t>+++  $372.61 AC2</t>
-  </si>
-  <si>
-    <t>+++ -To clear $857.00</t>
+    <t>Will Pay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -249,6 +249,30 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
+      <name val="HelveticaNeue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="206"/>
+      <name val="HelveticaNeue"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="HelveticaNeue"/>
     </font>
   </fonts>
@@ -269,20 +293,73 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="26">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="TableStyleLight1" xfId="1" customBuiltin="1"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -611,15 +688,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:IZ57"/>
+  <dimension ref="D2:IZ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="6"/>
     <col min="5" max="5" width="19.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="60.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="260" width="10.83203125" style="1"/>
@@ -733,7 +810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="5:6" ht="19">
+    <row r="17" spans="4:6" ht="19">
       <c r="E17" s="2">
         <f>E14-E15</f>
         <v>43708.08</v>
@@ -742,7 +819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="5:6" ht="19">
+    <row r="18" spans="4:6" ht="19">
       <c r="E18" s="2">
         <f>E7</f>
         <v>14951.12</v>
@@ -751,254 +828,292 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="5:6" ht="19">
+    <row r="19" spans="4:6" ht="19">
       <c r="F19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="5:6" ht="19">
+    <row r="20" spans="4:6" ht="19">
       <c r="F20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="5:6" ht="19">
+    <row r="21" spans="4:6" ht="19">
       <c r="E21" s="2">
         <f>E17-E18</f>
         <v>28756.959999999999</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" ht="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" ht="19">
       <c r="E22" s="2">
         <f>E2</f>
         <v>2840.94</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" ht="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="19">
       <c r="E23" s="2">
         <f>E3</f>
         <v>5000</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" ht="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" ht="19">
       <c r="E24" s="2">
         <f>E4</f>
         <v>8142.92</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" ht="19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" ht="19">
       <c r="E25" s="2">
         <f>E5</f>
         <v>8208.8700000000008</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" ht="19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" ht="19">
       <c r="E26" s="2">
         <f>E8</f>
         <v>4564.2299999999996</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" ht="19">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="4:6" ht="19">
+      <c r="F28" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="5:6" ht="19">
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="5:6" ht="19">
-      <c r="F28" s="3" t="s">
+    <row r="29" spans="4:6" ht="19">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="4:6" ht="19">
+      <c r="D30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="5:6" ht="19">
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="5:6" ht="19">
-      <c r="F30" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6" ht="19">
+    <row r="31" spans="4:6" ht="19">
       <c r="E31" s="2">
         <v>256.04000000000002</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" ht="19">
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" ht="19">
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" ht="19">
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" ht="19">
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" ht="19">
+      <c r="D36" s="6">
+        <v>150</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" ht="19">
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" ht="19">
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" ht="19">
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" ht="19">
+      <c r="E40" s="2">
+        <v>224</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" ht="19">
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" ht="19">
+      <c r="D42" s="6">
+        <v>171</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" ht="7" customHeight="1">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="4:6" ht="19">
+      <c r="D44" s="6">
+        <v>300</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" ht="19">
+      <c r="F45" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="5:6" ht="19">
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
+    <row r="46" spans="4:6" ht="19">
+      <c r="F46" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="5:6" ht="19">
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3" t="s">
+    <row r="47" spans="4:6" ht="19">
+      <c r="F47" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="5:6" ht="19">
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3" t="s">
+    <row r="48" spans="4:6" ht="19">
+      <c r="F48" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="5:6" ht="19">
-      <c r="F35" s="3" t="s">
+    <row r="51" spans="4:6" ht="19">
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="5:6" ht="19">
-      <c r="F36" s="3" t="s">
+    <row r="53" spans="4:6" s="1" customFormat="1">
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="4:6" ht="19">
+      <c r="F54" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="5:6" ht="19">
-      <c r="F37" s="3" t="s">
+    <row r="55" spans="4:6" ht="19">
+      <c r="E55" s="2">
+        <f>E31-SUM(E40:E53)</f>
+        <v>32.04000000000002</v>
+      </c>
+      <c r="F55" s="5">
+        <f>E55</f>
+        <v>32.04000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" ht="19">
+      <c r="F56" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" ht="19">
+      <c r="F57" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" ht="19">
+      <c r="F58" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" ht="19">
+      <c r="F59" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="5:6" ht="19">
-      <c r="F38" s="3" t="s">
+    <row r="60" spans="4:6" ht="19">
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="4:6" ht="19">
+      <c r="F61" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="5:6" ht="19">
-      <c r="E39" s="2">
-        <v>224</v>
-      </c>
-      <c r="F39" s="3" t="s">
+    <row r="62" spans="4:6" ht="19">
+      <c r="F62" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="5:6" ht="19">
-      <c r="E40" s="2">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3" t="s">
+    <row r="63" spans="4:6" ht="19">
+      <c r="F63" s="3" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="5:6" ht="19">
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" ht="19">
-      <c r="E42" s="2">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="5:6" ht="10.5" customHeight="1">
-      <c r="E43" s="2">
-        <v>-150</v>
-      </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="5:6" ht="12" customHeight="1">
-      <c r="E44" s="2">
-        <v>-171</v>
-      </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="5:6" ht="19">
-      <c r="E45" s="2">
-        <v>150</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6" ht="19">
-      <c r="E46" s="2">
-        <v>171</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" s="1" customFormat="1"/>
-    <row r="48" spans="5:6" ht="19">
-      <c r="F48" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6" ht="19">
-      <c r="E49" s="2">
-        <f>E31-SUM(E32:E47)</f>
-        <v>32.04000000000002</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6" ht="19">
-      <c r="F50" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6" ht="19">
-      <c r="F51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="5:6" ht="19">
-      <c r="F52" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="5:6" ht="19">
-      <c r="F53" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="5:6" ht="19">
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="5:6" ht="19">
-      <c r="F55" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="5:6" ht="19">
-      <c r="F56" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="5:6" ht="19">
-      <c r="F57" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1017,7 +1132,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="257" width="10.83203125" style="1"/>
   </cols>
@@ -1042,7 +1157,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="257" width="10.83203125" style="1"/>
   </cols>

--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="23440" windowHeight="22540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>$2,840.94 - 30.00% OMF</t>
   </si>
@@ -115,20 +119,16 @@
     <t>$31.03 - Conns(beg) AC2 16th</t>
   </si>
   <si>
-    <t>$199.95 - CarmaxRed (mid) 17th*</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">$77.00 - Conns (mid) (Bed) 18th</t>
+      <t>$77.00 - Conns (mid) (Bed) 18th</t>
     </r>
     <r>
       <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
         <rFont val="HelveticaNeue"/>
-        <family val="0"/>
-        <color rgb="00FF0000"/>
-        <sz val="16"/>
       </rPr>
-      <t xml:space="preserve">*</t>
+      <t>*</t>
     </r>
   </si>
   <si>
@@ -142,30 +142,28 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">$350.00 - Bank of America (beg)</t>
+      <t>$350.00 - Bank of America (beg)</t>
     </r>
     <r>
       <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
         <rFont val="HelveticaNeue"/>
-        <family val="0"/>
-        <color rgb="00FF0000"/>
-        <sz val="16"/>
       </rPr>
-      <t xml:space="preserve">*</t>
+      <t>*</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">    |_  $25 Netflix|Hulu {CC}</t>
+      <t>    |_  $25 Netflix|Hulu {CC}</t>
     </r>
     <r>
       <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
         <rFont val="HelveticaNeue"/>
-        <family val="0"/>
-        <color rgb="00FF0000"/>
-        <sz val="16"/>
       </rPr>
-      <t xml:space="preserve">*</t>
+      <t>*</t>
     </r>
   </si>
   <si>
@@ -173,16 +171,15 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">    |_  $35 Comcast (internet) (mid) {CC} 24th</t>
+      <t>    |_  $35 Comcast (internet) (mid) {CC} 24th</t>
     </r>
     <r>
       <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
         <rFont val="HelveticaNeue"/>
-        <family val="0"/>
-        <color rgb="00FF0000"/>
-        <sz val="16"/>
       </rPr>
-      <t xml:space="preserve">*</t>
+      <t>*</t>
     </r>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>/------- Projected Total</t>
   </si>
   <si>
-    <t>On Dec 20th</t>
-  </si>
-  <si>
     <t>+++  $484.16 AC1</t>
   </si>
   <si>
@@ -205,55 +199,71 @@
   </si>
   <si>
     <t>+++ -To clear $857.00</t>
+  </si>
+  <si>
+    <t>On Jan. 3rd</t>
+  </si>
+  <si>
+    <t>On Jan. 17th</t>
+  </si>
+  <si>
+    <t>$265.00 - CarmaxRed (mid) 17th*</t>
+  </si>
+  <si>
+    <t>follow up if payment went through</t>
+  </si>
+  <si>
+    <t>*other income</t>
+  </si>
+  <si>
+    <t>Sat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="GENERAL" numFmtId="165"/>
-    <numFmt formatCode="\$#,##0.00" numFmtId="166"/>
-    <numFmt formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00" numFmtId="167"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="16"/>
+      <name val="HelveticaNeue"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="16"/>
+      <color rgb="FF376092"/>
+      <name val="HelveticaNeue"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <sz val="16"/>
     </font>
     <font>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <color rgb="00376092"/>
-      <sz val="16"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <color rgb="00FF0000"/>
-      <sz val="16"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,7 +275,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -273,62 +283,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellStyleXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="21"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="167" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="167" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="TableStyleLight1" xfId="20"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Normal" xfId="21"/>
+  <cellStyles count="12">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -387,254 +386,559 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="D2:F63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:IW65"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="10.7254901960784"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.8901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="19.7607843137255"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="60.6313725490196"/>
-    <col collapsed="false" hidden="false" max="257" min="7" style="4" width="10.8901960784314"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="67" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="2">
-      <c r="E2" s="3" t="n">
+    <row r="2" spans="5:6" ht="19">
+      <c r="E2" s="3">
         <v>2840.94</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="3">
-      <c r="E3" s="3" t="n">
+    <row r="3" spans="5:6" ht="19">
+      <c r="E3" s="3">
         <v>5000</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="4">
-      <c r="E4" s="3" t="n">
+    <row r="4" spans="5:6" ht="19">
+      <c r="E4" s="3">
         <v>8142.92</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="5">
-      <c r="E5" s="3" t="n">
-        <v>8208.87</v>
+    <row r="5" spans="5:6" ht="19">
+      <c r="E5" s="3">
+        <v>8208.8700000000008</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="6">
-      <c r="E6" s="3" t="n">
+    <row r="6" spans="5:6" ht="19">
+      <c r="E6" s="3">
         <v>119896.14</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="7">
-      <c r="E7" s="3" t="n">
+    <row r="7" spans="5:6" ht="19">
+      <c r="E7" s="3">
         <v>14951.12</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="8">
-      <c r="E8" s="3" t="n">
-        <v>4564.23</v>
+    <row r="8" spans="5:6" ht="19">
+      <c r="E8" s="3">
+        <v>4564.2299999999996</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="9">
+    <row r="9" spans="5:6" ht="19">
       <c r="F9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="10">
-      <c r="E10" s="3" t="inlineStr">
-        <f aca="false">SUM(E2:E8)</f>
-        <is>
-          <t/>
-        </is>
+    <row r="10" spans="5:6" ht="19">
+      <c r="E10" s="3">
+        <f>SUM(E2:E8)</f>
+        <v>163604.22</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="11">
+    <row r="11" spans="5:6" ht="19">
       <c r="F11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="12">
+    <row r="12" spans="5:6" ht="19">
       <c r="F12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="13">
+    <row r="13" spans="5:6" ht="19">
       <c r="F13" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="14">
-      <c r="E14" s="3" t="inlineStr">
-        <f aca="false">SUM(E2:E8)</f>
-        <is>
-          <t/>
-        </is>
+    <row r="14" spans="5:6" ht="19">
+      <c r="E14" s="3">
+        <f>SUM(E2:E8)</f>
+        <v>163604.22</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="15">
-      <c r="E15" s="3" t="inlineStr">
-        <f aca="false">E6</f>
-        <is>
-          <t/>
-        </is>
+    <row r="15" spans="5:6" ht="19">
+      <c r="E15" s="3">
+        <f>E6</f>
+        <v>119896.14</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="16">
+    <row r="16" spans="5:6" ht="19">
       <c r="F16" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="17">
-      <c r="E17" s="3" t="inlineStr">
-        <f aca="false">E14-E15</f>
-        <is>
-          <t/>
-        </is>
+    <row r="17" spans="4:6" ht="19">
+      <c r="E17" s="3">
+        <f>E14-E15</f>
+        <v>43708.08</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="18">
-      <c r="E18" s="3" t="inlineStr">
-        <f aca="false">E7</f>
-        <is>
-          <t/>
-        </is>
+    <row r="18" spans="4:6" ht="19">
+      <c r="E18" s="3">
+        <f>E7</f>
+        <v>14951.12</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="19">
+    <row r="19" spans="4:6" ht="19">
       <c r="F19" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="20">
+    <row r="20" spans="4:6" ht="19">
       <c r="F20" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="21">
-      <c r="E21" s="3" t="inlineStr">
-        <f aca="false">E17-E18</f>
-        <is>
-          <t/>
-        </is>
+    <row r="21" spans="4:6" ht="19">
+      <c r="E21" s="3">
+        <f>E17-E18</f>
+        <v>28756.959999999999</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="22">
-      <c r="E22" s="3" t="inlineStr">
-        <f aca="false">E2</f>
-        <is>
-          <t/>
-        </is>
+    <row r="22" spans="4:6" ht="19">
+      <c r="E22" s="3">
+        <f>E2</f>
+        <v>2840.94</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="23">
-      <c r="E23" s="3" t="inlineStr">
-        <f aca="false">E3</f>
-        <is>
-          <t/>
-        </is>
+    <row r="23" spans="4:6" ht="19">
+      <c r="E23" s="3">
+        <f>E3</f>
+        <v>5000</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="24">
-      <c r="E24" s="3" t="inlineStr">
-        <f aca="false">E4</f>
-        <is>
-          <t/>
-        </is>
+    <row r="24" spans="4:6" ht="19">
+      <c r="E24" s="3">
+        <f>E4</f>
+        <v>8142.92</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="25">
-      <c r="E25" s="3" t="inlineStr">
-        <f aca="false">E5</f>
-        <is>
-          <t/>
-        </is>
+    <row r="25" spans="4:6" ht="19">
+      <c r="E25" s="3">
+        <f>E5</f>
+        <v>8208.8700000000008</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="26">
-      <c r="E26" s="3" t="inlineStr">
-        <f aca="false">E8</f>
-        <is>
-          <t/>
-        </is>
+    <row r="26" spans="4:6" ht="19">
+      <c r="E26" s="3">
+        <f>E8</f>
+        <v>4564.2299999999996</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="27">
+    <row r="27" spans="4:6" ht="19">
       <c r="F27" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="28">
+    <row r="28" spans="4:6" ht="19">
       <c r="F28" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="29">
+    <row r="29" spans="4:6" ht="19">
       <c r="F29" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="30">
+    <row r="30" spans="4:6" ht="19">
       <c r="D30" s="6" t="s">
         <v>23</v>
       </c>
@@ -642,261 +946,280 @@
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="31">
-      <c r="E31" s="3" t="n">
-        <v>256.04</v>
+    <row r="31" spans="4:6" ht="19">
+      <c r="E31" s="3">
+        <v>1427.29</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="32">
-      <c r="E32" s="3" t="n">
-        <v>0</v>
+    <row r="32" spans="4:6" ht="19">
+      <c r="E32" s="3">
+        <v>957.42</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="33">
-      <c r="E33" s="3" t="n">
+    <row r="33" spans="5:7" ht="19">
+      <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="34">
-      <c r="E34" s="3" t="n">
-        <v>0</v>
+    <row r="34" spans="5:7" ht="19">
+      <c r="E34" s="3">
+        <v>130</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="35">
-      <c r="E35" s="3" t="n">
+      <c r="G34" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" ht="19">
+      <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="36">
-      <c r="D36" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="E36" s="3" t="n">
+    <row r="36" spans="5:7" ht="19">
+      <c r="E36" s="3">
         <v>0</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="37">
-      <c r="E37" s="3" t="n">
+    <row r="37" spans="5:7" ht="19">
+      <c r="E37" s="3">
         <v>0</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="38">
-      <c r="E38" s="3" t="n">
+    <row r="38" spans="5:7" ht="19">
+      <c r="E38" s="3">
         <v>0</v>
       </c>
       <c r="F38" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" ht="19">
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="39">
-      <c r="E39" s="3" t="n">
+    <row r="40" spans="5:7" ht="19">
+      <c r="E40" s="3">
         <v>0</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="40">
-      <c r="E40" s="3" t="n">
-        <v>224</v>
-      </c>
-      <c r="F40" s="5" t="s">
+    <row r="41" spans="5:7" ht="19">
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="41">
-      <c r="E41" s="3" t="n">
+    <row r="42" spans="5:7" ht="19">
+      <c r="E42" s="3">
         <v>0</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="42">
-      <c r="E42" s="3" t="n">
-        <v>170.87</v>
-      </c>
-      <c r="F42" s="5" t="s">
+    <row r="43" spans="5:7" ht="7" customHeight="1">
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="5:7" ht="19">
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="7" outlineLevel="0" r="43">
-      <c r="F43" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="44">
-      <c r="E44" s="3" t="n">
-        <v>300</v>
-      </c>
-      <c r="F44" s="5" t="s">
+    <row r="45" spans="5:7" ht="19">
+      <c r="F45" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="45">
-      <c r="F45" s="5" t="s">
+    <row r="46" spans="5:7" ht="19">
+      <c r="F46" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="46">
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7" ht="19">
+      <c r="F47" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="47">
-      <c r="F47" s="5" t="s">
+    <row r="48" spans="5:7" ht="19">
+      <c r="F48" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="48">
-      <c r="F48" s="5" t="s">
+      <c r="G48" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" ht="19">
+      <c r="E49" s="10">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" ht="19">
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="51">
-      <c r="E51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="5" t="s">
+    <row r="53" spans="4:6" s="4" customFormat="1" ht="12">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="4:6" ht="19">
+      <c r="F54" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53" s="4">
-      <c r="D53" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="54">
-      <c r="F54" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="55">
-      <c r="E55" s="3" t="inlineStr">
-        <f aca="false">E31-SUM(E40:E53)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F55" s="8" t="inlineStr">
-        <f aca="false">E55</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="56">
+    <row r="55" spans="4:6" ht="19">
+      <c r="E55" s="3">
+        <f>E31-SUM(E32:E48)+E49-SUM(E50:E54)</f>
+        <v>339.86999999999989</v>
+      </c>
+      <c r="F55" s="8">
+        <f>E55</f>
+        <v>339.86999999999989</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" ht="19">
       <c r="F56" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="57">
+    <row r="57" spans="4:6" ht="19">
       <c r="F57" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="58">
+    <row r="58" spans="4:6" ht="19">
       <c r="F58" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="59">
+    <row r="59" spans="4:6" ht="19">
       <c r="F59" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" ht="19">
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="4:6" ht="19">
+      <c r="F61" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" ht="19">
+      <c r="F62" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="60">
-      <c r="F60" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="61">
-      <c r="F61" s="5" t="s">
+    <row r="63" spans="4:6" ht="19">
+      <c r="F63" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="62">
-      <c r="F62" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="63">
-      <c r="F63" s="5" t="s">
+    <row r="65" spans="6:6" ht="19">
+      <c r="F65" s="5" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.8901960784314"/>
+    <col min="1" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.8901960784314"/>
+    <col min="1" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>$2,775.71 - 30.00% OMF</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>$130.00 - OMF 1st</t>
-  </si>
-  <si>
-    <t>follow up if payment went through</t>
   </si>
   <si>
     <t>$36.75 - Conns(beg) AC1 5th</t>
@@ -135,16 +132,16 @@
     </r>
   </si>
   <si>
-    <t>$77.00 - Conns (mid) (Bed) 18th  </t>
+    <t>$77.00 - Conns (mid) (Bed) 18th</t>
   </si>
   <si>
     <t>$224.00 - Farmers (mid) 19th</t>
   </si>
   <si>
-    <t>$71.00 - Conns (mid) Couches) 20th </t>
-  </si>
-  <si>
-    <t>$171.00 - CarmaxSilver (mid) 21st </t>
+    <t>$71.00 - Conns (mid) Couches) 20th</t>
+  </si>
+  <si>
+    <t>$171.00 - CarmaxSilver (mid) 21st</t>
   </si>
   <si>
     <t>$350.00 - Bank of America (beg)</t>
@@ -153,10 +150,10 @@
     <t>    |_  $25 Netflix|Hulu {CC}</t>
   </si>
   <si>
-    <t>    |_ $175 Verizon (mid) {CC} 16th </t>
-  </si>
-  <si>
-    <t>    |_  $35 Comcast (internet) (mid) {CC} 24th </t>
+    <t>    |_ $175 Verizon (mid) {CC} 16th</t>
+  </si>
+  <si>
+    <t>    |_  $35 Comcast (internet) (mid) {CC} 24th</t>
   </si>
   <si>
     <t>    |_  $65 TXEnergy - light (beg) {CC} 25th</t>
@@ -309,7 +306,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in TableStyleLight1" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -386,12 +383,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="10.9960784313726"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.1725490196078"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="12.6901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="68.0039215686274"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="17.5921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="4" width="10.9960784313726"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.2352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="12.7529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="68.3490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="17.6823529411765"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="4" width="11.0509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="2">
@@ -627,7 +624,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="31">
       <c r="E31" s="3" t="n">
-        <v>1427.29</v>
+        <v>1431.62</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>25</v>
@@ -660,7 +657,7 @@
         <v>29</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="35">
@@ -668,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="36">
@@ -676,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="37">
@@ -684,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="38">
@@ -692,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="39">
@@ -700,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="40">
@@ -708,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="41">
@@ -716,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="42">
@@ -724,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="7" outlineLevel="0" r="43">
@@ -735,27 +732,27 @@
         <v>0</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="45">
       <c r="F45" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="46">
       <c r="F46" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="47">
       <c r="F47" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="48">
       <c r="F48" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="49">
@@ -763,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="51">
@@ -771,7 +768,7 @@
         <v>44.83</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="53" s="4">
@@ -780,7 +777,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="54">
       <c r="F54" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="55">
@@ -814,7 +811,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="59">
       <c r="F59" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="60">
@@ -822,22 +819,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="61">
       <c r="F61" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="62">
       <c r="F62" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="63">
       <c r="F63" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="65">
       <c r="F65" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -863,7 +860,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.9960784313726"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="11.0509803921569"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -888,7 +885,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.9960784313726"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="11.0509803921569"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>$2,775.71 - 30.00% OMF</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>- individual expenses</t>
+  </si>
+  <si>
+    <t>paycheck residual </t>
   </si>
   <si>
     <t>/------- Projected Total</t>
@@ -306,7 +309,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -383,12 +386,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.2352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="12.7529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="68.3490196078431"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="17.6823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="4" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.2901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="12.8156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="68.6901960784314"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="17.7725490196078"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="4" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="2">
@@ -757,7 +760,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="49">
       <c r="E49" s="3" t="n">
-        <v>0</v>
+        <v>870</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>43</v>
@@ -771,13 +774,21 @@
         <v>44</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="52">
+      <c r="E52" s="3" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="53" s="4">
       <c r="D53" s="2"/>
       <c r="G53" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="54">
       <c r="F54" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="55">
@@ -811,7 +822,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="59">
       <c r="F59" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="60">
@@ -819,22 +830,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="61">
       <c r="F61" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="62">
       <c r="F62" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="63">
       <c r="F63" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="65">
       <c r="F65" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -860,7 +871,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="11.1058823529412"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -885,7 +896,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="11.1058823529412"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="5660" yWindow="0" windowWidth="25460" windowHeight="23020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>$2,775.71 - 30.00% OMF</t>
   </si>
@@ -119,14 +123,13 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">$265.00 - CarmaxRed (mid) 17th</t>
+      <t>$265.00 - CarmaxRed (mid) 17th</t>
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
         <rFont val="HelveticaNeue"/>
-        <family val="0"/>
-        <sz val="16"/>
-        <vertAlign val="superscript"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -165,7 +168,7 @@
     <t>- individual expenses</t>
   </si>
   <si>
-    <t>paycheck residual </t>
+    <t>paycheck residual</t>
   </si>
   <si>
     <t>/------- Projected Total</t>
@@ -184,60 +187,62 @@
   </si>
   <si>
     <t>On Jan. 17th</t>
+  </si>
+  <si>
+    <t>Renters Insurance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="\$#,##0.00" numFmtId="165"/>
-    <numFmt formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00" numFmtId="166"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="16"/>
+      <name val="HelveticaNeue"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF376092"/>
+      <name val="HelveticaNeue"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="16"/>
+      <name val="HelveticaNeue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="00FF0000"/>
-      <sz val="13"/>
     </font>
     <font>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <color rgb="00376092"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <sz val="16"/>
-      <vertAlign val="superscript"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,7 +254,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -257,60 +262,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20"/>
+  <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -369,255 +354,559 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="D2:G65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:IW66"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.2901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="12.8156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="68.6901960784314"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="17.7725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="4" width="11.1058823529412"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="11.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="57.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" style="5" customWidth="1"/>
+    <col min="8" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="2">
-      <c r="E2" s="3" t="n">
+    <row r="2" spans="5:6" ht="19">
+      <c r="E2" s="3">
         <v>2775.71</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="3">
-      <c r="E3" s="3" t="n">
+    <row r="3" spans="5:6" ht="19">
+      <c r="E3" s="3">
         <v>5000</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="4">
-      <c r="E4" s="3" t="n">
+    <row r="4" spans="5:6" ht="19">
+      <c r="E4" s="3">
         <v>8142.92</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="5">
-      <c r="E5" s="3" t="n">
-        <v>8208.87</v>
+    <row r="5" spans="5:6" ht="19">
+      <c r="E5" s="3">
+        <v>8208.8700000000008</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="6">
-      <c r="E6" s="3" t="n">
+    <row r="6" spans="5:6" ht="19">
+      <c r="E6" s="3">
         <v>119896.14</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="7">
-      <c r="E7" s="3" t="n">
+    <row r="7" spans="5:6" ht="19">
+      <c r="E7" s="3">
         <v>14951.12</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="8">
-      <c r="E8" s="3" t="n">
-        <v>4564.23</v>
+    <row r="8" spans="5:6" ht="19">
+      <c r="E8" s="3">
+        <v>4564.2299999999996</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="9">
+    <row r="9" spans="5:6" ht="19">
       <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="10">
-      <c r="E10" s="3" t="inlineStr">
-        <f aca="false">SUM(E2:E8)</f>
-        <is>
-          <t/>
-        </is>
+    <row r="10" spans="5:6" ht="19">
+      <c r="E10" s="3">
+        <f>SUM(E2:E8)</f>
+        <v>163538.99000000002</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="11">
+    <row r="11" spans="5:6" ht="19">
       <c r="F11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="12">
+    <row r="12" spans="5:6" ht="19">
       <c r="F12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="13">
+    <row r="13" spans="5:6" ht="19">
       <c r="F13" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="14">
-      <c r="E14" s="3" t="inlineStr">
-        <f aca="false">SUM(E2:E8)</f>
-        <is>
-          <t/>
-        </is>
+    <row r="14" spans="5:6" ht="19">
+      <c r="E14" s="3">
+        <f>SUM(E2:E8)</f>
+        <v>163538.99000000002</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="15">
-      <c r="E15" s="3" t="inlineStr">
-        <f aca="false">E6</f>
-        <is>
-          <t/>
-        </is>
+    <row r="15" spans="5:6" ht="19">
+      <c r="E15" s="3">
+        <f>E6</f>
+        <v>119896.14</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="16">
+    <row r="16" spans="5:6" ht="19">
       <c r="F16" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="17">
-      <c r="E17" s="3" t="inlineStr">
-        <f aca="false">E14-E15</f>
-        <is>
-          <t/>
-        </is>
+    <row r="17" spans="4:7" ht="19">
+      <c r="E17" s="3">
+        <f>E14-E15</f>
+        <v>43642.85000000002</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="18">
-      <c r="E18" s="3" t="inlineStr">
-        <f aca="false">E7</f>
-        <is>
-          <t/>
-        </is>
+    <row r="18" spans="4:7" ht="19">
+      <c r="E18" s="3">
+        <f>E7</f>
+        <v>14951.12</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="19">
+    <row r="19" spans="4:7" ht="19">
       <c r="F19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="20">
+    <row r="20" spans="4:7" ht="19">
       <c r="F20" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="21">
-      <c r="E21" s="3" t="inlineStr">
-        <f aca="false">E17-E18</f>
-        <is>
-          <t/>
-        </is>
+    <row r="21" spans="4:7" ht="19">
+      <c r="E21" s="3">
+        <f>E17-E18</f>
+        <v>28691.730000000018</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="22">
-      <c r="E22" s="3" t="inlineStr">
-        <f aca="false">E2</f>
-        <is>
-          <t/>
-        </is>
+    <row r="22" spans="4:7" ht="19">
+      <c r="E22" s="3">
+        <f>E2</f>
+        <v>2775.71</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="23">
-      <c r="E23" s="3" t="inlineStr">
-        <f aca="false">E3</f>
-        <is>
-          <t/>
-        </is>
+    <row r="23" spans="4:7" ht="19">
+      <c r="E23" s="3">
+        <f>E3</f>
+        <v>5000</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="24">
-      <c r="E24" s="3" t="inlineStr">
-        <f aca="false">E4</f>
-        <is>
-          <t/>
-        </is>
+    <row r="24" spans="4:7" ht="19">
+      <c r="E24" s="3">
+        <f>E4</f>
+        <v>8142.92</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="25">
-      <c r="E25" s="3" t="inlineStr">
-        <f aca="false">E5</f>
-        <is>
-          <t/>
-        </is>
+    <row r="25" spans="4:7" ht="19">
+      <c r="E25" s="3">
+        <f>E5</f>
+        <v>8208.8700000000008</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="26">
-      <c r="E26" s="3" t="inlineStr">
-        <f aca="false">E8</f>
-        <is>
-          <t/>
-        </is>
+    <row r="26" spans="4:7" ht="19">
+      <c r="E26" s="3">
+        <f>E8</f>
+        <v>4564.2299999999996</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="27">
+    <row r="27" spans="4:7" ht="19">
       <c r="F27" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="28">
+    <row r="28" spans="4:7" ht="19">
       <c r="F28" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="29">
+    <row r="29" spans="4:7" ht="19">
       <c r="F29" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="30">
+    <row r="30" spans="4:7" ht="19">
       <c r="D30" s="7" t="s">
         <v>23</v>
       </c>
@@ -625,16 +914,16 @@
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="31">
-      <c r="E31" s="3" t="n">
+    <row r="31" spans="4:7" ht="19">
+      <c r="E31" s="3">
         <v>1431.62</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="32">
-      <c r="E32" s="3" t="n">
+    <row r="32" spans="4:7" ht="19">
+      <c r="E32" s="3">
         <v>957.42</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -644,16 +933,16 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="33">
-      <c r="E33" s="3" t="n">
+    <row r="33" spans="5:7" ht="19">
+      <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="34">
-      <c r="E34" s="3" t="n">
+    <row r="34" spans="5:7" ht="19">
+      <c r="E34" s="3">
         <v>130</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -663,248 +952,259 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="35">
-      <c r="E35" s="3" t="n">
+    <row r="35" spans="5:7" ht="19">
+      <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="36">
-      <c r="E36" s="3" t="n">
+      <c r="G35" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" ht="19">
+      <c r="E36" s="3">
         <v>0</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="37">
-      <c r="E37" s="3" t="n">
+    <row r="37" spans="5:7" ht="19">
+      <c r="E37" s="3">
         <v>0</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="38">
-      <c r="E38" s="3" t="n">
+    <row r="38" spans="5:7" ht="21">
+      <c r="E38" s="3">
         <v>0</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="39">
-      <c r="E39" s="3" t="n">
+    <row r="39" spans="5:7" ht="19">
+      <c r="E39" s="3">
         <v>0</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="40">
-      <c r="E40" s="3" t="n">
+    <row r="40" spans="5:7" ht="19">
+      <c r="E40" s="3">
         <v>0</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="41">
-      <c r="E41" s="3" t="n">
+    <row r="41" spans="5:7" ht="19">
+      <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="42">
-      <c r="E42" s="3" t="n">
+    <row r="42" spans="5:7" ht="19">
+      <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="7" outlineLevel="0" r="43">
+    <row r="43" spans="5:7" ht="7" customHeight="1">
       <c r="F43" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="44">
-      <c r="E44" s="3" t="n">
+    <row r="44" spans="5:7" ht="19">
+      <c r="E44" s="3">
         <v>0</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="45">
+    <row r="45" spans="5:7" ht="19">
       <c r="F45" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="46">
+    <row r="46" spans="5:7" ht="19">
       <c r="F46" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="47">
+    <row r="47" spans="5:7" ht="19">
       <c r="F47" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="48">
+    <row r="48" spans="5:7" ht="19">
       <c r="F48" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="49">
-      <c r="E49" s="3" t="n">
-        <v>870</v>
+    <row r="49" spans="4:7" ht="19">
+      <c r="E49" s="3">
+        <v>56.25</v>
       </c>
       <c r="F49" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" ht="19">
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="51">
-      <c r="E51" s="3" t="n">
+    <row r="52" spans="4:7" ht="19">
+      <c r="E52" s="3">
         <v>44.83</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F52" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="52">
-      <c r="E52" s="3" t="n">
-        <v>-50</v>
-      </c>
-      <c r="F52" s="4" t="s">
+    <row r="53" spans="4:7">
+      <c r="F53" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="53" s="4">
-      <c r="D53" s="2"/>
-      <c r="G53" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="54">
-      <c r="F54" s="6" t="s">
+    <row r="54" spans="4:7" s="4" customFormat="1">
+      <c r="D54" s="2"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="4:7" ht="19">
+      <c r="F55" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="55">
-      <c r="E55" s="3" t="inlineStr">
-        <f aca="false">E31-SUM(E32:E48)+E49-SUM(E50:E54)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F55" s="9" t="inlineStr">
-        <f aca="false">E55</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="56">
-      <c r="F56" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="57">
+    <row r="56" spans="4:7" ht="19">
+      <c r="E56" s="3">
+        <f>E31-SUM(E32:E49)+E50-SUM(E51:E55)</f>
+        <v>243.11999999999983</v>
+      </c>
+      <c r="F56" s="9">
+        <f>E56</f>
+        <v>243.11999999999983</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" ht="19">
       <c r="F57" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="58">
+    <row r="58" spans="4:7" ht="19">
       <c r="F58" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="59">
+    <row r="59" spans="4:7" ht="19">
       <c r="F59" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" ht="19">
+      <c r="F60" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="60">
-      <c r="F60" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="61">
-      <c r="F61" s="6" t="s">
+    <row r="61" spans="4:7" ht="19">
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="4:7" ht="19">
+      <c r="F62" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="62">
-      <c r="F62" s="6" t="s">
+    <row r="63" spans="4:7" ht="19">
+      <c r="F63" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="63">
-      <c r="F63" s="6" t="s">
+    <row r="64" spans="4:7" ht="19">
+      <c r="F64" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="65">
-      <c r="F65" s="6" t="s">
+    <row r="66" spans="6:6" ht="19">
+      <c r="F66" s="6" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="E56" emptyCellReference="1"/>
+  </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="11.1058823529412"/>
+    <col min="1" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="11.1058823529412"/>
+    <col min="1" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>$2,775.71 - 30.00% OMF</t>
   </si>
@@ -168,9 +168,6 @@
     <t>- individual expenses</t>
   </si>
   <si>
-    <t>paycheck residual</t>
-  </si>
-  <si>
     <t>/------- Projected Total</t>
   </si>
   <si>
@@ -190,6 +187,12 @@
   </si>
   <si>
     <t>Renters Insurance</t>
+  </si>
+  <si>
+    <t>Sergio Check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange for making cashiers check and leave bank amount still there. </t>
   </si>
 </sst>
 </file>
@@ -691,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IW66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -935,7 +938,7 @@
     </row>
     <row r="33" spans="5:7" ht="19">
       <c r="E33" s="3">
-        <v>0</v>
+        <v>1125</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>28</v>
@@ -978,6 +981,9 @@
       <c r="F37" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="G37" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="38" spans="5:7" ht="21">
       <c r="E38" s="3">
@@ -1055,15 +1061,18 @@
         <v>56.25</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="4:7" ht="19">
       <c r="E50" s="3">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="4:7" ht="19">
@@ -1075,8 +1084,11 @@
       </c>
     </row>
     <row r="53" spans="4:7">
+      <c r="E53" s="3">
+        <v>2010</v>
+      </c>
       <c r="F53" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="4:7" s="4" customFormat="1">
@@ -1085,17 +1097,17 @@
     </row>
     <row r="55" spans="4:7" ht="19">
       <c r="F55" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="4:7" ht="19">
       <c r="E56" s="3">
-        <f>E31-SUM(E32:E49)+E50-SUM(E51:E55)</f>
-        <v>243.11999999999983</v>
+        <f>E31-SUM(E32:E49)+E50-SUM(E51:E55)+SUM(E60:E100)</f>
+        <v>28.319999999999709</v>
       </c>
       <c r="F56" s="9">
         <f>E56</f>
-        <v>243.11999999999983</v>
+        <v>28.319999999999709</v>
       </c>
     </row>
     <row r="57" spans="4:7" ht="19">
@@ -1114,8 +1126,11 @@
       </c>
     </row>
     <row r="60" spans="4:7" ht="19">
+      <c r="E60" s="3">
+        <v>2080.1999999999998</v>
+      </c>
       <c r="F60" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="4:7" ht="19">
@@ -1123,22 +1138,22 @@
     </row>
     <row r="62" spans="4:7" ht="19">
       <c r="F62" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="4:7" ht="19">
       <c r="F63" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="4:7" ht="19">
       <c r="F64" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="6:6" ht="19">
       <c r="F66" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>$2,775.71 - 30.00% OMF</t>
   </si>
@@ -168,10 +168,10 @@
     <t>Will need to use the cash towards the cashiers check and remove from here to let the paycheck cover it.</t>
   </si>
   <si>
+    <t>sergios check</t>
+  </si>
+  <si>
     <t>- individual expenses</t>
-  </si>
-  <si>
-    <t>paycheck residual</t>
   </si>
   <si>
     <t>/------- Projected Total</t>
@@ -196,11 +196,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="GENERAL" numFmtId="165"/>
-    <numFmt formatCode="\$#,##0.00" numFmtId="166"/>
-    <numFmt formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00" numFmtId="167"/>
+    <numFmt formatCode="\$#,##0.00" numFmtId="165"/>
+    <numFmt formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00" numFmtId="166"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -288,24 +287,24 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="167" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="167" xfId="20">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
   </cellXfs>
@@ -316,7 +315,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="TableStyleLight1" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in TableStyleLight1" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -393,12 +392,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="10.8901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.8901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="11.556862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="58.1176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="6.19607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="4" width="10.8901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="10.9960784313726"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9960784313726"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="11.6666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="58.6980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="38.5921568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="4" width="10.9960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="2">
@@ -634,7 +633,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="31">
       <c r="E31" s="3" t="n">
-        <v>1431.62</v>
+        <v>3511.82</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>25</v>
@@ -642,7 +641,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="32">
       <c r="E32" s="3" t="n">
-        <v>957.42</v>
+        <v>967.42</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>26</v>
@@ -653,10 +652,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="33">
       <c r="E33" s="3" t="n">
-        <v>0</v>
+        <v>1122.31</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>28</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="34">
@@ -696,6 +698,9 @@
       <c r="F37" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="G37" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="38">
       <c r="E38" s="3" t="n">
@@ -778,13 +783,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="50">
       <c r="E50" s="3" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="51">
+      <c r="E51" s="3" t="n">
+        <v>1270</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="52">
@@ -792,11 +805,6 @@
         <v>44.83</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="53">
-      <c r="F53" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -889,7 +897,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.8901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.9960784313726"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -914,7 +922,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.8901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.9960784313726"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="8920" yWindow="3400" windowWidth="18260" windowHeight="19120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>$2,775.71 - 30.00% OMF</t>
   </si>
@@ -119,14 +123,13 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">$265.00 - CarmaxRed (mid) 17th</t>
+      <t>$265.00 - CarmaxRed (mid) 17th</t>
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
         <rFont val="HelveticaNeue"/>
-        <family val="0"/>
-        <sz val="16"/>
-        <vertAlign val="superscript"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -163,9 +166,6 @@
   </si>
   <si>
     <t>*other income</t>
-  </si>
-  <si>
-    <t>Will need to use the cash towards the cashiers check and remove from here to let the paycheck cover it.</t>
   </si>
   <si>
     <t>sergios check</t>
@@ -195,55 +195,54 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="\$#,##0.00" numFmtId="165"/>
-    <numFmt formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00" numFmtId="166"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="16"/>
+      <name val="HelveticaNeue"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF376092"/>
+      <name val="HelveticaNeue"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="16"/>
+      <name val="HelveticaNeue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="00FF0000"/>
-      <sz val="13"/>
     </font>
     <font>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <color rgb="00376092"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <sz val="16"/>
-      <vertAlign val="superscript"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -255,7 +254,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -263,60 +262,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in TableStyleLight1" xfId="20"/>
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -375,255 +350,559 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="D2:G66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:IW66"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="10.9960784313726"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9960784313726"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="11.6666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="58.6980392156863"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="38.5921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="4" width="10.9960784313726"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="57.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="5"/>
+    <col min="8" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="2">
-      <c r="E2" s="3" t="n">
+    <row r="2" spans="5:6" ht="19">
+      <c r="E2" s="3">
         <v>2775.71</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="3">
-      <c r="E3" s="3" t="n">
+    <row r="3" spans="5:6" ht="19">
+      <c r="E3" s="3">
         <v>5000</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="4">
-      <c r="E4" s="3" t="n">
+    <row r="4" spans="5:6" ht="19">
+      <c r="E4" s="3">
         <v>8142.92</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="5">
-      <c r="E5" s="3" t="n">
-        <v>8208.87</v>
+    <row r="5" spans="5:6" ht="19">
+      <c r="E5" s="3">
+        <v>8208.8700000000008</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="6">
-      <c r="E6" s="3" t="n">
+    <row r="6" spans="5:6" ht="19">
+      <c r="E6" s="3">
         <v>119896.14</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="7">
-      <c r="E7" s="3" t="n">
+    <row r="7" spans="5:6" ht="19">
+      <c r="E7" s="3">
         <v>14951.12</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="8">
-      <c r="E8" s="3" t="n">
-        <v>4564.23</v>
+    <row r="8" spans="5:6" ht="19">
+      <c r="E8" s="3">
+        <v>4564.2299999999996</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="9">
+    <row r="9" spans="5:6" ht="19">
       <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="10">
-      <c r="E10" s="3" t="inlineStr">
-        <f aca="false">SUM(E2:E8)</f>
-        <is>
-          <t/>
-        </is>
+    <row r="10" spans="5:6" ht="19">
+      <c r="E10" s="3">
+        <f>SUM(E2:E8)</f>
+        <v>163538.99000000002</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="11">
+    <row r="11" spans="5:6" ht="19">
       <c r="F11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="12">
+    <row r="12" spans="5:6" ht="19">
       <c r="F12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="13">
+    <row r="13" spans="5:6" ht="19">
       <c r="F13" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="14">
-      <c r="E14" s="3" t="inlineStr">
-        <f aca="false">SUM(E2:E8)</f>
-        <is>
-          <t/>
-        </is>
+    <row r="14" spans="5:6" ht="19">
+      <c r="E14" s="3">
+        <f>SUM(E2:E8)</f>
+        <v>163538.99000000002</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="15">
-      <c r="E15" s="3" t="inlineStr">
-        <f aca="false">E6</f>
-        <is>
-          <t/>
-        </is>
+    <row r="15" spans="5:6" ht="19">
+      <c r="E15" s="3">
+        <f>E6</f>
+        <v>119896.14</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="16">
+    <row r="16" spans="5:6" ht="19">
       <c r="F16" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="17">
-      <c r="E17" s="3" t="inlineStr">
-        <f aca="false">E14-E15</f>
-        <is>
-          <t/>
-        </is>
+    <row r="17" spans="4:7" ht="19">
+      <c r="E17" s="3">
+        <f>E14-E15</f>
+        <v>43642.85000000002</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="18">
-      <c r="E18" s="3" t="inlineStr">
-        <f aca="false">E7</f>
-        <is>
-          <t/>
-        </is>
+    <row r="18" spans="4:7" ht="19">
+      <c r="E18" s="3">
+        <f>E7</f>
+        <v>14951.12</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="19">
+    <row r="19" spans="4:7" ht="19">
       <c r="F19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="20">
+    <row r="20" spans="4:7" ht="19">
       <c r="F20" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="21">
-      <c r="E21" s="3" t="inlineStr">
-        <f aca="false">E17-E18</f>
-        <is>
-          <t/>
-        </is>
+    <row r="21" spans="4:7" ht="19">
+      <c r="E21" s="3">
+        <f>E17-E18</f>
+        <v>28691.730000000018</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="22">
-      <c r="E22" s="3" t="inlineStr">
-        <f aca="false">E2</f>
-        <is>
-          <t/>
-        </is>
+    <row r="22" spans="4:7" ht="19">
+      <c r="E22" s="3">
+        <f>E2</f>
+        <v>2775.71</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="23">
-      <c r="E23" s="3" t="inlineStr">
-        <f aca="false">E3</f>
-        <is>
-          <t/>
-        </is>
+    <row r="23" spans="4:7" ht="19">
+      <c r="E23" s="3">
+        <f>E3</f>
+        <v>5000</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="24">
-      <c r="E24" s="3" t="inlineStr">
-        <f aca="false">E4</f>
-        <is>
-          <t/>
-        </is>
+    <row r="24" spans="4:7" ht="19">
+      <c r="E24" s="3">
+        <f>E4</f>
+        <v>8142.92</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="25">
-      <c r="E25" s="3" t="inlineStr">
-        <f aca="false">E5</f>
-        <is>
-          <t/>
-        </is>
+    <row r="25" spans="4:7" ht="19">
+      <c r="E25" s="3">
+        <f>E5</f>
+        <v>8208.8700000000008</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="26">
-      <c r="E26" s="3" t="inlineStr">
-        <f aca="false">E8</f>
-        <is>
-          <t/>
-        </is>
+    <row r="26" spans="4:7" ht="19">
+      <c r="E26" s="3">
+        <f>E8</f>
+        <v>4564.2299999999996</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="27">
+    <row r="27" spans="4:7" ht="19">
       <c r="F27" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="28">
+    <row r="28" spans="4:7" ht="19">
       <c r="F28" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="29">
+    <row r="29" spans="4:7" ht="19">
       <c r="F29" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="30">
+    <row r="30" spans="4:7" ht="19">
       <c r="D30" s="7" t="s">
         <v>23</v>
       </c>
@@ -631,16 +910,16 @@
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="31">
-      <c r="E31" s="3" t="n">
+    <row r="31" spans="4:7" ht="19">
+      <c r="E31" s="3">
         <v>3511.82</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="32">
-      <c r="E32" s="3" t="n">
+    <row r="32" spans="4:7" ht="19">
+      <c r="E32" s="3">
         <v>967.42</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -650,8 +929,8 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="33">
-      <c r="E33" s="3" t="n">
+    <row r="33" spans="5:7" ht="19">
+      <c r="E33" s="3">
         <v>1122.31</v>
       </c>
       <c r="F33" s="6" t="s">
@@ -661,8 +940,8 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="34">
-      <c r="E34" s="3" t="n">
+    <row r="34" spans="5:7" ht="19">
+      <c r="E34" s="3">
         <v>130</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -672,8 +951,8 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="35">
-      <c r="E35" s="3" t="n">
+    <row r="35" spans="5:7" ht="19">
+      <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="6" t="s">
@@ -683,16 +962,16 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="36">
-      <c r="E36" s="3" t="n">
+    <row r="36" spans="5:7" ht="19">
+      <c r="E36" s="3">
         <v>0</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="37">
-      <c r="E37" s="3" t="n">
+    <row r="37" spans="5:7" ht="19">
+      <c r="E37" s="3">
         <v>0</v>
       </c>
       <c r="F37" s="6" t="s">
@@ -702,235 +981,232 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="38">
-      <c r="E38" s="3" t="n">
+    <row r="38" spans="5:7" ht="21">
+      <c r="E38" s="3">
         <v>0</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="39">
-      <c r="E39" s="3" t="n">
+    <row r="39" spans="5:7" ht="19">
+      <c r="E39" s="3">
         <v>0</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="40">
-      <c r="E40" s="3" t="n">
+    <row r="40" spans="5:7" ht="19">
+      <c r="E40" s="3">
         <v>0</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="41">
-      <c r="E41" s="3" t="n">
+    <row r="41" spans="5:7" ht="19">
+      <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="42">
-      <c r="E42" s="3" t="n">
+    <row r="42" spans="5:7" ht="19">
+      <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="7" outlineLevel="0" r="43">
+    <row r="43" spans="5:7" ht="7" customHeight="1">
       <c r="F43" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="44">
-      <c r="E44" s="3" t="n">
+    <row r="44" spans="5:7" ht="19">
+      <c r="E44" s="3">
         <v>0</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="45">
+    <row r="45" spans="5:7" ht="19">
       <c r="F45" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="46">
+    <row r="46" spans="5:7" ht="19">
       <c r="F46" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="47">
+    <row r="47" spans="5:7" ht="19">
       <c r="F47" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="48">
+    <row r="48" spans="5:7" ht="19">
       <c r="F48" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="49">
-      <c r="E49" s="3" t="n">
+    <row r="49" spans="4:7" ht="19">
+      <c r="E49" s="3">
         <v>56.25</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="50">
-      <c r="E50" s="3" t="n">
+    <row r="50" spans="4:7" ht="19">
+      <c r="E50" s="3">
         <v>0</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G50" s="5" t="s">
+    </row>
+    <row r="51" spans="4:7" ht="16">
+      <c r="E51" s="3">
+        <v>1270</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="51">
-      <c r="E51" s="3" t="n">
-        <v>1270</v>
-      </c>
-      <c r="F51" s="4" t="s">
+    <row r="52" spans="4:7" ht="19">
+      <c r="E52" s="3">
+        <v>44.83</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="52">
-      <c r="E52" s="3" t="n">
-        <v>44.83</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="54" s="4">
+    <row r="54" spans="4:7" s="4" customFormat="1" ht="16">
       <c r="D54" s="2"/>
       <c r="G54" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="55">
+    <row r="55" spans="4:7" ht="19">
       <c r="F55" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="56">
-      <c r="E56" s="3" t="inlineStr">
-        <f aca="false">E31-SUM(E32:E49)+E50-SUM(E51:E55)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F56" s="9" t="inlineStr">
-        <f aca="false">E56</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="57">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" ht="19">
+      <c r="E56" s="3">
+        <f>E31-SUM(E32:E49)+E50-SUM(E51:E55)</f>
+        <v>-78.989999999999782</v>
+      </c>
+      <c r="F56" s="9">
+        <f>E56</f>
+        <v>-78.989999999999782</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" ht="19">
       <c r="F57" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="58">
+    <row r="58" spans="4:7" ht="19">
       <c r="F58" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="59">
+    <row r="59" spans="4:7" ht="19">
       <c r="F59" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="60">
+    <row r="60" spans="4:7" ht="19">
       <c r="F60" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" ht="19">
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="4:7" ht="19">
+      <c r="F62" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="61">
-      <c r="F61" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="62">
-      <c r="F62" s="6" t="s">
+    <row r="63" spans="4:7" ht="19">
+      <c r="F63" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="63">
-      <c r="F63" s="6" t="s">
+    <row r="64" spans="4:7" ht="19">
+      <c r="F64" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="64">
-      <c r="F64" s="6" t="s">
+    <row r="66" spans="6:6" ht="19">
+      <c r="F66" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="66">
-      <c r="F66" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.9960784313726"/>
+    <col min="1" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.9960784313726"/>
+    <col min="1" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>$2,775.71 - 30.00% OMF</t>
   </si>
@@ -177,9 +177,6 @@
     <t>/------- Projected Total</t>
   </si>
   <si>
-    <t>On Jan. 3rd</t>
-  </si>
-  <si>
     <t>+++  $484.16 AC1</t>
   </si>
   <si>
@@ -190,6 +187,15 @@
   </si>
   <si>
     <t>On Jan. 17th</t>
+  </si>
+  <si>
+    <t>On Clear Block</t>
+  </si>
+  <si>
+    <t>On Jan. 31st</t>
+  </si>
+  <si>
+    <t>On Feb. 14th</t>
   </si>
 </sst>
 </file>
@@ -262,9 +268,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -284,11 +292,13 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="TableStyleLight1" xfId="1" customBuiltin="1"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -685,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:IW66"/>
+  <dimension ref="A2:IW70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="10.83203125" style="2"/>
@@ -1068,7 +1078,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="4:7" ht="16">
+    <row r="51" spans="4:7">
       <c r="E51" s="3">
         <v>1270</v>
       </c>
@@ -1084,7 +1094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="4:7" s="4" customFormat="1" ht="16">
+    <row r="54" spans="4:7" s="4" customFormat="1">
       <c r="D54" s="2"/>
       <c r="G54" s="5"/>
     </row>
@@ -1120,7 +1130,7 @@
     </row>
     <row r="60" spans="4:7" ht="19">
       <c r="F60" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="4:7" ht="19">
@@ -1128,22 +1138,32 @@
     </row>
     <row r="62" spans="4:7" ht="19">
       <c r="F62" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="4:7" ht="19">
       <c r="F63" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="4:7" ht="19">
       <c r="F64" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="6:6" ht="19">
       <c r="F66" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" ht="19">
+      <c r="F68" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" ht="19">
+      <c r="F70" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1167,7 +1187,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="257" width="10.83203125" style="4"/>
   </cols>
@@ -1192,7 +1212,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="257" width="10.83203125" style="4"/>
   </cols>

--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8920" yWindow="3400" windowWidth="18260" windowHeight="19120"/>
+    <workbookView xWindow="8600" yWindow="1800" windowWidth="18580" windowHeight="20720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <t>*other income</t>
   </si>
   <si>
-    <t>sergios check</t>
-  </si>
-  <si>
     <t>- individual expenses</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>On Feb. 14th</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Sergio's check</t>
   </si>
 </sst>
 </file>
@@ -268,9 +268,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -292,11 +294,13 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
@@ -695,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:IW70"/>
+  <dimension ref="A2:IW71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1078,44 +1082,39 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="4:7">
-      <c r="E51" s="3">
-        <v>1270</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="52" spans="4:7" ht="19">
       <c r="E52" s="3">
+        <v>1110</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" ht="19">
+      <c r="E53" s="3">
         <v>44.83</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F53" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" s="4" customFormat="1">
+      <c r="D55" s="2"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="4:7" ht="19">
+      <c r="F56" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="4:7" s="4" customFormat="1">
-      <c r="D54" s="2"/>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="4:7" ht="19">
-      <c r="F55" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="4:7" ht="19">
-      <c r="E56" s="3">
-        <f>E31-SUM(E32:E49)+E50-SUM(E51:E55)</f>
-        <v>-78.989999999999782</v>
-      </c>
-      <c r="F56" s="9">
-        <f>E56</f>
-        <v>-78.989999999999782</v>
-      </c>
-    </row>
     <row r="57" spans="4:7" ht="19">
-      <c r="F57" s="6" t="s">
-        <v>9</v>
+      <c r="E57" s="3">
+        <f>E31-SUM(E32:E49)+E50-SUM(E51:E56)</f>
+        <v>81.010000000000218</v>
+      </c>
+      <c r="F57" s="9">
+        <f>E57</f>
+        <v>81.010000000000218</v>
       </c>
     </row>
     <row r="58" spans="4:7" ht="19">
@@ -1130,40 +1129,45 @@
     </row>
     <row r="60" spans="4:7" ht="19">
       <c r="F60" s="6" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="4:7" ht="19">
-      <c r="F61" s="6"/>
+      <c r="F61" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="62" spans="4:7" ht="19">
-      <c r="F62" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="F62" s="6"/>
     </row>
     <row r="63" spans="4:7" ht="19">
       <c r="F63" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="4:7" ht="19">
       <c r="F64" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" ht="19">
+      <c r="F65" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" ht="19">
+      <c r="F67" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="6:6" ht="19">
-      <c r="F66" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="6:6" ht="19">
-      <c r="F68" s="6" t="s">
+    <row r="69" spans="6:6" ht="19">
+      <c r="F69" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" ht="19">
+      <c r="F71" s="6" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="6:6" ht="19">
-      <c r="F70" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>$2,775.71 - 30.00% OMF</t>
   </si>
@@ -132,9 +132,15 @@
     </r>
   </si>
   <si>
+    <t>CARMAX009552026</t>
+  </si>
+  <si>
     <t>$77.00 - Conns (mid) (Bed) 18th</t>
   </si>
   <si>
+    <t>CC01171408391676922161</t>
+  </si>
+  <si>
     <t>$224.00 - Farmers (mid) 19th</t>
   </si>
   <si>
@@ -144,6 +150,12 @@
     <t>$171.00 - CarmaxSilver (mid) 21st</t>
   </si>
   <si>
+    <t>CARMAX009551992</t>
+  </si>
+  <si>
+    <t>$100.00 – CapitalOne (beg)</t>
+  </si>
+  <si>
     <t>$350.00 - Bank of America (beg)</t>
   </si>
   <si>
@@ -165,7 +177,7 @@
     <t>*other income</t>
   </si>
   <si>
-    <t> - Sergio's check</t>
+    <t>- Sergio's check</t>
   </si>
   <si>
     <t>- individual expenses</t>
@@ -199,11 +211,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="GENERAL" numFmtId="165"/>
-    <numFmt formatCode="\$#,##0.00" numFmtId="166"/>
-    <numFmt formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00" numFmtId="167"/>
+    <numFmt formatCode="\$#,##0.00" numFmtId="165"/>
+    <numFmt formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00" numFmtId="166"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -291,24 +302,24 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="167" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="167" xfId="20">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
   </cellXfs>
@@ -319,7 +330,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="TableStyleLight1" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in TableStyleLight1" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -389,19 +400,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D2:G71"/>
+  <dimension ref="D2:H72"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="10.8901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.8901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="10.8901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="58.1176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="10.8901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="4" width="10.8901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="10.9450980392157"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9450980392157"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="10.9450980392157"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="58.4078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="10.9450980392157"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="4" width="10.9450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="2">
@@ -637,7 +648,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="31">
       <c r="E31" s="3" t="n">
-        <v>3511.82</v>
+        <v>5588.31</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>25</v>
@@ -708,26 +719,38 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="38">
       <c r="E38" s="3" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="G38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="39">
       <c r="E39" s="3" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="40">
       <c r="E40" s="3" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="41">
@@ -735,15 +758,21 @@
         <v>0</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="42">
       <c r="E42" s="3" t="n">
-        <v>0</v>
+        <v>170.87</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="7" outlineLevel="0" r="43">
@@ -754,12 +783,15 @@
         <v>0</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="45">
+      <c r="E45" s="3" t="n">
+        <v>200</v>
+      </c>
       <c r="F45" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>27</v>
@@ -767,7 +799,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="46">
       <c r="F46" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>27</v>
@@ -775,7 +807,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="47">
       <c r="F47" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>27</v>
@@ -783,70 +815,73 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="48">
       <c r="F48" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="49">
-      <c r="E49" s="3" t="n">
-        <v>56.25</v>
-      </c>
       <c r="F49" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="50">
       <c r="E50" s="3" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="51">
+      <c r="E51" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="52">
-      <c r="E52" s="3" t="n">
-        <v>1110</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>45</v>
+      <c r="F51" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="53">
       <c r="E53" s="3" t="n">
+        <v>1110</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="54">
+      <c r="E54" s="3" t="n">
         <v>44.83</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="55" s="4">
-      <c r="D55" s="2"/>
-      <c r="G55" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="56">
-      <c r="F56" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="F54" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="56" s="4">
+      <c r="D56" s="2"/>
+      <c r="G56" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="57">
-      <c r="E57" s="3" t="inlineStr">
-        <f aca="false">E31-SUM(E32:E49)+E50-SUM(E51:E56)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F57" s="9" t="inlineStr">
-        <f aca="false">E57</f>
-        <is>
-          <t/>
-        </is>
+      <c r="F57" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="58">
-      <c r="F58" s="6" t="s">
-        <v>9</v>
+      <c r="E58" s="3" t="inlineStr">
+        <f aca="false">E31-SUM(E32:E50)+E51-SUM(E52:E57)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F58" s="9" t="inlineStr">
+        <f aca="false">E58</f>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="59">
@@ -861,40 +896,45 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="61">
       <c r="F61" s="6" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="62">
-      <c r="F62" s="6"/>
+      <c r="F62" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="63">
-      <c r="F63" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="F63" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="64">
       <c r="F64" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="65">
       <c r="F65" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="67">
-      <c r="F67" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="69">
-      <c r="F69" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="71">
-      <c r="F71" s="6" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="66">
+      <c r="F66" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="68">
+      <c r="F68" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="70">
+      <c r="F70" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="72">
+      <c r="F72" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -920,7 +960,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.8901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.9450980392157"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -945,7 +985,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.8901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.9450980392157"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="10900" yWindow="960" windowWidth="17580" windowHeight="20340"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>$2,775.71 - 30.00% OMF</t>
   </si>
@@ -119,14 +123,13 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">$265.00 - CarmaxRed (mid) 17th</t>
+      <t>$265.00 - CarmaxRed (mid) 17th</t>
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
         <rFont val="HelveticaNeue"/>
-        <family val="0"/>
-        <sz val="16"/>
-        <vertAlign val="superscript"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -205,60 +208,48 @@
   </si>
   <si>
     <t>On Feb. 14th</t>
+  </si>
+  <si>
+    <t>DGKKVMBBBB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="\$#,##0.00" numFmtId="165"/>
-    <numFmt formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00" numFmtId="166"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="16"/>
+      <name val="HelveticaNeue"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="00FF0000"/>
-      <sz val="13"/>
+      <sz val="16"/>
+      <color rgb="FF376092"/>
+      <name val="HelveticaNeue"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
+      <sz val="16"/>
       <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <color rgb="00376092"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <sz val="16"/>
-      <vertAlign val="superscript"/>
     </font>
   </fonts>
   <fills count="2">
@@ -270,7 +261,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -278,60 +269,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in TableStyleLight1" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -390,255 +353,559 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="D2:H72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:IW72"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="10.9450980392157"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9450980392157"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="10.9450980392157"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="58.4078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="10.9450980392157"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="4" width="10.9450980392157"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="57.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="5"/>
+    <col min="8" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="2">
-      <c r="E2" s="3" t="n">
+    <row r="2" spans="5:6" ht="19">
+      <c r="E2" s="3">
         <v>2775.71</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="3">
-      <c r="E3" s="3" t="n">
+    <row r="3" spans="5:6" ht="19">
+      <c r="E3" s="3">
         <v>5000</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="4">
-      <c r="E4" s="3" t="n">
+    <row r="4" spans="5:6" ht="19">
+      <c r="E4" s="3">
         <v>8142.92</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="5">
-      <c r="E5" s="3" t="n">
-        <v>8208.87</v>
+    <row r="5" spans="5:6" ht="19">
+      <c r="E5" s="3">
+        <v>8208.8700000000008</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="6">
-      <c r="E6" s="3" t="n">
+    <row r="6" spans="5:6" ht="19">
+      <c r="E6" s="3">
         <v>119896.14</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="7">
-      <c r="E7" s="3" t="n">
+    <row r="7" spans="5:6" ht="19">
+      <c r="E7" s="3">
         <v>14951.12</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="8">
-      <c r="E8" s="3" t="n">
-        <v>4564.23</v>
+    <row r="8" spans="5:6" ht="19">
+      <c r="E8" s="3">
+        <v>4564.2299999999996</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="9">
+    <row r="9" spans="5:6" ht="19">
       <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="10">
-      <c r="E10" s="3" t="inlineStr">
-        <f aca="false">SUM(E2:E8)</f>
-        <is>
-          <t/>
-        </is>
+    <row r="10" spans="5:6" ht="19">
+      <c r="E10" s="3">
+        <f>SUM(E2:E8)</f>
+        <v>163538.99000000002</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="11">
+    <row r="11" spans="5:6" ht="19">
       <c r="F11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="12">
+    <row r="12" spans="5:6" ht="19">
       <c r="F12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="13">
+    <row r="13" spans="5:6" ht="19">
       <c r="F13" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="14">
-      <c r="E14" s="3" t="inlineStr">
-        <f aca="false">SUM(E2:E8)</f>
-        <is>
-          <t/>
-        </is>
+    <row r="14" spans="5:6" ht="19">
+      <c r="E14" s="3">
+        <f>SUM(E2:E8)</f>
+        <v>163538.99000000002</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="15">
-      <c r="E15" s="3" t="inlineStr">
-        <f aca="false">E6</f>
-        <is>
-          <t/>
-        </is>
+    <row r="15" spans="5:6" ht="19">
+      <c r="E15" s="3">
+        <f>E6</f>
+        <v>119896.14</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="16">
+    <row r="16" spans="5:6" ht="19">
       <c r="F16" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="17">
-      <c r="E17" s="3" t="inlineStr">
-        <f aca="false">E14-E15</f>
-        <is>
-          <t/>
-        </is>
+    <row r="17" spans="4:6" ht="19">
+      <c r="E17" s="3">
+        <f>E14-E15</f>
+        <v>43642.85000000002</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="18">
-      <c r="E18" s="3" t="inlineStr">
-        <f aca="false">E7</f>
-        <is>
-          <t/>
-        </is>
+    <row r="18" spans="4:6" ht="19">
+      <c r="E18" s="3">
+        <f>E7</f>
+        <v>14951.12</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="19">
+    <row r="19" spans="4:6" ht="19">
       <c r="F19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="20">
+    <row r="20" spans="4:6" ht="19">
       <c r="F20" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="21">
-      <c r="E21" s="3" t="inlineStr">
-        <f aca="false">E17-E18</f>
-        <is>
-          <t/>
-        </is>
+    <row r="21" spans="4:6" ht="19">
+      <c r="E21" s="3">
+        <f>E17-E18</f>
+        <v>28691.730000000018</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="22">
-      <c r="E22" s="3" t="inlineStr">
-        <f aca="false">E2</f>
-        <is>
-          <t/>
-        </is>
+    <row r="22" spans="4:6" ht="19">
+      <c r="E22" s="3">
+        <f>E2</f>
+        <v>2775.71</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="23">
-      <c r="E23" s="3" t="inlineStr">
-        <f aca="false">E3</f>
-        <is>
-          <t/>
-        </is>
+    <row r="23" spans="4:6" ht="19">
+      <c r="E23" s="3">
+        <f>E3</f>
+        <v>5000</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="24">
-      <c r="E24" s="3" t="inlineStr">
-        <f aca="false">E4</f>
-        <is>
-          <t/>
-        </is>
+    <row r="24" spans="4:6" ht="19">
+      <c r="E24" s="3">
+        <f>E4</f>
+        <v>8142.92</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="25">
-      <c r="E25" s="3" t="inlineStr">
-        <f aca="false">E5</f>
-        <is>
-          <t/>
-        </is>
+    <row r="25" spans="4:6" ht="19">
+      <c r="E25" s="3">
+        <f>E5</f>
+        <v>8208.8700000000008</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="26">
-      <c r="E26" s="3" t="inlineStr">
-        <f aca="false">E8</f>
-        <is>
-          <t/>
-        </is>
+    <row r="26" spans="4:6" ht="19">
+      <c r="E26" s="3">
+        <f>E8</f>
+        <v>4564.2299999999996</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="27">
+    <row r="27" spans="4:6" ht="19">
       <c r="F27" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="28">
+    <row r="28" spans="4:6" ht="19">
       <c r="F28" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="29">
+    <row r="29" spans="4:6" ht="19">
       <c r="F29" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="30">
+    <row r="30" spans="4:6" ht="19">
       <c r="D30" s="7" t="s">
         <v>23</v>
       </c>
@@ -646,38 +913,32 @@
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="31">
-      <c r="E31" s="3" t="n">
-        <v>5588.31</v>
+    <row r="31" spans="4:6" ht="19">
+      <c r="E31" s="3">
+        <v>2157.5</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="32">
-      <c r="E32" s="3" t="n">
-        <v>967.42</v>
+    <row r="32" spans="4:6" ht="19">
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="33">
-      <c r="E33" s="3" t="n">
-        <v>1122.31</v>
+    </row>
+    <row r="33" spans="5:8" ht="19">
+      <c r="E33" s="3">
+        <v>0</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="34">
-      <c r="E34" s="3" t="n">
+    </row>
+    <row r="34" spans="5:8" ht="19">
+      <c r="E34" s="3">
         <v>130</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -687,38 +948,38 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="35">
-      <c r="E35" s="3" t="n">
+    <row r="35" spans="5:8" ht="19">
+      <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="36">
-      <c r="E36" s="3" t="n">
-        <v>0</v>
+    </row>
+    <row r="36" spans="5:8" ht="19">
+      <c r="E36" s="3">
+        <v>150</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="37">
-      <c r="E37" s="3" t="n">
+      <c r="G36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36">
+        <v>63179230</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" ht="19">
+      <c r="E37" s="3">
         <v>0</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="38">
-      <c r="E38" s="3" t="n">
+    </row>
+    <row r="38" spans="5:8" ht="21">
+      <c r="E38" s="3">
         <v>270</v>
       </c>
       <c r="F38" s="6" t="s">
@@ -731,8 +992,8 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="39">
-      <c r="E39" s="3" t="n">
+    <row r="39" spans="5:8" ht="19">
+      <c r="E39" s="3">
         <v>77</v>
       </c>
       <c r="F39" s="6" t="s">
@@ -745,24 +1006,24 @@
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="40">
-      <c r="E40" s="3" t="n">
+    <row r="40" spans="5:8" ht="19">
+      <c r="E40" s="3">
         <v>224</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="41">
-      <c r="E41" s="3" t="n">
+    <row r="41" spans="5:8" ht="19">
+      <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="42">
-      <c r="E42" s="3" t="n">
+    <row r="42" spans="5:8" ht="19">
+      <c r="E42" s="3">
         <v>170.87</v>
       </c>
       <c r="F42" s="6" t="s">
@@ -775,19 +1036,25 @@
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="7" outlineLevel="0" r="43">
+    <row r="43" spans="5:8" ht="7" customHeight="1">
       <c r="F43" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="44">
-      <c r="E44" s="3" t="n">
-        <v>0</v>
+    <row r="44" spans="5:8" ht="19">
+      <c r="E44" s="3">
+        <v>225</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="45">
-      <c r="E45" s="3" t="n">
+      <c r="G44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" ht="19">
+      <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="6" t="s">
@@ -797,7 +1064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="46">
+    <row r="46" spans="5:8" ht="19">
       <c r="F46" s="6" t="s">
         <v>43</v>
       </c>
@@ -805,7 +1072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="47">
+    <row r="47" spans="5:8" ht="19">
       <c r="F47" s="6" t="s">
         <v>44</v>
       </c>
@@ -813,7 +1080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="48">
+    <row r="48" spans="5:8" ht="19">
       <c r="F48" s="6" t="s">
         <v>45</v>
       </c>
@@ -821,7 +1088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="49">
+    <row r="49" spans="4:7" ht="19">
       <c r="F49" s="6" t="s">
         <v>46</v>
       </c>
@@ -829,171 +1096,171 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="50">
-      <c r="E50" s="3" t="n">
-        <v>56.25</v>
+    <row r="50" spans="4:7" ht="19">
+      <c r="E50" s="3">
+        <v>0</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="51">
-      <c r="E51" s="3" t="n">
+    <row r="51" spans="4:7" ht="19">
+      <c r="E51" s="3">
         <v>0</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="53">
-      <c r="E53" s="3" t="n">
-        <v>1110</v>
+    <row r="53" spans="4:7" ht="19">
+      <c r="E53" s="3">
+        <v>0</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="54">
-      <c r="E54" s="3" t="n">
-        <v>44.83</v>
+    <row r="54" spans="4:7" ht="19">
+      <c r="E54" s="3">
+        <v>0</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="56" s="4">
+    <row r="56" spans="4:7" s="4" customFormat="1" ht="16">
       <c r="D56" s="2"/>
       <c r="G56" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="57">
+    <row r="57" spans="4:7" ht="19">
       <c r="F57" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="58">
-      <c r="E58" s="3" t="inlineStr">
-        <f aca="false">E31-SUM(E32:E50)+E51-SUM(E52:E57)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F58" s="9" t="inlineStr">
-        <f aca="false">E58</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="59">
+    <row r="58" spans="4:7" ht="19">
+      <c r="E58" s="3">
+        <f>E31-SUM(E32:E50)+E51-SUM(E52:E57)</f>
+        <v>710.63000000000011</v>
+      </c>
+      <c r="F58" s="9">
+        <f>E58</f>
+        <v>710.63000000000011</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" ht="19">
       <c r="F59" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="60">
+    <row r="60" spans="4:7" ht="19">
       <c r="F60" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="61">
+    <row r="61" spans="4:7" ht="19">
       <c r="F61" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="62">
+    <row r="62" spans="4:7" ht="19">
       <c r="F62" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="63">
+    <row r="63" spans="4:7" ht="19">
       <c r="F63" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="64">
+    <row r="64" spans="4:7" ht="19">
       <c r="F64" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="65">
+    <row r="65" spans="6:6" ht="19">
       <c r="F65" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="66">
+    <row r="66" spans="6:6" ht="19">
       <c r="F66" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="68">
+    <row r="68" spans="6:6" ht="19">
       <c r="F68" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="70">
+    <row r="70" spans="6:6" ht="19">
       <c r="F70" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="72">
+    <row r="72" spans="6:6" ht="19">
       <c r="F72" s="6" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.9450980392157"/>
+    <col min="1" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.9450980392157"/>
+    <col min="1" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="7160" yWindow="0" windowWidth="21720" windowHeight="22320"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>$2,775.71 - 30.00% OMF</t>
   </si>
@@ -119,49 +123,33 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">$265.00 - CarmaxRed (mid) 17th</t>
+      <t>$265.00 - CarmaxRed (mid) 17th</t>
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
         <rFont val="HelveticaNeue"/>
-        <family val="0"/>
-        <sz val="16"/>
-        <vertAlign val="superscript"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
-    <t>CARMAX009552026</t>
-  </si>
-  <si>
     <t>$77.00 - Conns (mid) (Bed) 18th</t>
   </si>
   <si>
-    <t>CC01171408391676922161</t>
-  </si>
-  <si>
     <t>$224.00 - Farmers (mid) 19th</t>
   </si>
   <si>
     <t>$71.00 - Conns (mid) Couches) 20th</t>
   </si>
   <si>
-    <t>Paid by cash</t>
-  </si>
-  <si>
     <t>$171.00 - CarmaxSilver (mid) 21st</t>
   </si>
   <si>
-    <t>CARMAX009551992</t>
-  </si>
-  <si>
     <t>$100.00 – CapitalOne (beg)</t>
   </si>
   <si>
-    <t>DGKKVMBBBB</t>
-  </si>
-  <si>
     <t>$350.00 - Bank of America (beg)</t>
   </si>
   <si>
@@ -208,60 +196,48 @@
   </si>
   <si>
     <t>On Feb. 14th</t>
+  </si>
+  <si>
+    <t>For Feb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="\$#,##0.00" numFmtId="165"/>
-    <numFmt formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00" numFmtId="166"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="16"/>
+      <name val="HelveticaNeue"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="00FF0000"/>
-      <sz val="13"/>
+      <sz val="16"/>
+      <color rgb="FF376092"/>
+      <name val="HelveticaNeue"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
+      <sz val="16"/>
       <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <color rgb="00376092"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <sz val="16"/>
-      <vertAlign val="superscript"/>
     </font>
   </fonts>
   <fills count="2">
@@ -273,7 +249,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -281,60 +257,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in TableStyleLight1" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -393,288 +341,595 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="D2:H70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:IW70"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="10.9450980392157"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9450980392157"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="10.9450980392157"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="58.4078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="10.9450980392157"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="4" width="10.9450980392157"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="57.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="5"/>
+    <col min="8" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="2">
-      <c r="E2" s="3" t="n">
+    <row r="2" spans="5:6" ht="19">
+      <c r="E2" s="3">
         <v>2641.32</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="3">
-      <c r="E3" s="3" t="n">
+    <row r="3" spans="5:6" ht="19">
+      <c r="E3" s="3">
         <v>4850</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="4">
-      <c r="E4" s="3" t="n">
+    <row r="4" spans="5:6" ht="19">
+      <c r="E4" s="3">
         <v>7810.32</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="5">
-      <c r="E5" s="3" t="n">
+    <row r="5" spans="5:6" ht="19">
+      <c r="E5" s="3">
         <v>7991.74</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="6">
-      <c r="E6" s="3" t="n">
+    <row r="6" spans="5:6" ht="19">
+      <c r="E6" s="3">
         <v>119541.69</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="7">
-      <c r="E7" s="3" t="n">
+    <row r="7" spans="5:6" ht="19">
+      <c r="E7" s="3">
         <v>14791.23</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="8">
-      <c r="E8" s="3" t="n">
-        <v>4437.4</v>
+    <row r="8" spans="5:6" ht="19">
+      <c r="E8" s="3">
+        <v>4437.3999999999996</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="9">
+    <row r="9" spans="5:6" ht="19">
       <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="10">
-      <c r="E10" s="3" t="inlineStr">
-        <f aca="false">SUM(E2:E8)</f>
-        <is>
-          <t/>
-        </is>
+    <row r="10" spans="5:6" ht="19">
+      <c r="E10" s="3">
+        <f>SUM(E2:E8)</f>
+        <v>162063.70000000001</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="11">
+    <row r="11" spans="5:6" ht="19">
       <c r="F11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="12">
+    <row r="12" spans="5:6" ht="19">
       <c r="F12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="13">
+    <row r="13" spans="5:6" ht="19">
       <c r="F13" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="14">
-      <c r="E14" s="3" t="inlineStr">
-        <f aca="false">SUM(E2:E8)</f>
-        <is>
-          <t/>
-        </is>
+    <row r="14" spans="5:6" ht="19">
+      <c r="E14" s="3">
+        <f>SUM(E2:E8)</f>
+        <v>162063.70000000001</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="15">
-      <c r="E15" s="3" t="inlineStr">
-        <f aca="false">E6</f>
-        <is>
-          <t/>
-        </is>
+    <row r="15" spans="5:6" ht="19">
+      <c r="E15" s="3">
+        <f>E6</f>
+        <v>119541.69</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="16">
+    <row r="16" spans="5:6" ht="19">
       <c r="F16" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="17">
-      <c r="E17" s="3" t="inlineStr">
-        <f aca="false">E14-E15</f>
-        <is>
-          <t/>
-        </is>
+    <row r="17" spans="4:7" ht="19">
+      <c r="E17" s="3">
+        <f>E14-E15</f>
+        <v>42522.010000000009</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="18">
-      <c r="E18" s="3" t="inlineStr">
-        <f aca="false">E7</f>
-        <is>
-          <t/>
-        </is>
+    <row r="18" spans="4:7" ht="19">
+      <c r="E18" s="3">
+        <f>E7</f>
+        <v>14791.23</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="19">
+    <row r="19" spans="4:7" ht="19">
       <c r="F19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="20">
+    <row r="20" spans="4:7" ht="19">
       <c r="F20" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="21">
-      <c r="E21" s="3" t="inlineStr">
-        <f aca="false">E17-E18</f>
-        <is>
-          <t/>
-        </is>
+    <row r="21" spans="4:7" ht="19">
+      <c r="E21" s="3">
+        <f>E17-E18</f>
+        <v>27730.78000000001</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="22">
-      <c r="E22" s="3" t="inlineStr">
-        <f aca="false">E2</f>
-        <is>
-          <t/>
-        </is>
+    <row r="22" spans="4:7" ht="19">
+      <c r="E22" s="3">
+        <f>E2</f>
+        <v>2641.32</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="23">
-      <c r="E23" s="3" t="inlineStr">
-        <f aca="false">E3</f>
-        <is>
-          <t/>
-        </is>
+    <row r="23" spans="4:7" ht="19">
+      <c r="E23" s="3">
+        <f>E3</f>
+        <v>4850</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="24">
-      <c r="E24" s="3" t="inlineStr">
-        <f aca="false">E4</f>
-        <is>
-          <t/>
-        </is>
+    <row r="24" spans="4:7" ht="19">
+      <c r="E24" s="3">
+        <f>E4</f>
+        <v>7810.32</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="25">
-      <c r="E25" s="3" t="inlineStr">
-        <f aca="false">E5</f>
-        <is>
-          <t/>
-        </is>
+    <row r="25" spans="4:7" ht="19">
+      <c r="E25" s="3">
+        <f>E5</f>
+        <v>7991.74</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="26">
-      <c r="E26" s="3" t="inlineStr">
-        <f aca="false">E8</f>
-        <is>
-          <t/>
-        </is>
+    <row r="26" spans="4:7" ht="19">
+      <c r="E26" s="3">
+        <f>E8</f>
+        <v>4437.3999999999996</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="27">
+    <row r="27" spans="4:7" ht="19">
       <c r="F27" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="28">
+    <row r="28" spans="4:7" ht="19">
       <c r="F28" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="29">
+    <row r="29" spans="4:7" ht="19">
       <c r="F29" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="30">
+    <row r="30" spans="4:7" ht="19">
       <c r="D30" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="31">
-      <c r="E31" s="3" t="n">
-        <v>2157.5</v>
+      <c r="G30" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" ht="19">
+      <c r="E31" s="3">
+        <v>566.88</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="32">
-      <c r="E32" s="3" t="n">
+    <row r="32" spans="4:7" ht="19">
+      <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="33">
-      <c r="E33" s="3" t="n">
+    <row r="33" spans="5:7" ht="19">
+      <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="34">
-      <c r="E34" s="3" t="n">
+    <row r="34" spans="5:7" ht="19">
+      <c r="E34" s="3">
         <v>130</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -684,320 +939,269 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="35">
-      <c r="E35" s="3" t="n">
+    <row r="35" spans="5:7" ht="19">
+      <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="36">
-      <c r="E36" s="3" t="n">
-        <v>150</v>
+    <row r="36" spans="5:7" ht="19">
+      <c r="E36" s="3">
+        <v>0</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="4" t="n">
-        <v>63179230</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="37">
-      <c r="E37" s="3" t="n">
+    </row>
+    <row r="37" spans="5:7" ht="19">
+      <c r="E37" s="3">
         <v>0</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="38">
-      <c r="E38" s="3" t="n">
-        <v>270</v>
+    <row r="38" spans="5:7" ht="21">
+      <c r="E38" s="3">
+        <v>0</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="4" t="s">
+    </row>
+    <row r="39" spans="5:7" ht="19">
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="39">
-      <c r="E39" s="3" t="n">
-        <v>77</v>
-      </c>
-      <c r="F39" s="6" t="s">
+    <row r="40" spans="5:7" ht="19">
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="4" t="s">
+    </row>
+    <row r="41" spans="5:7" ht="19">
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="40">
-      <c r="E40" s="3" t="n">
-        <v>224</v>
-      </c>
-      <c r="F40" s="6" t="s">
+    <row r="42" spans="5:7" ht="19">
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="41">
-      <c r="E41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="6" t="s">
+    <row r="43" spans="5:7" ht="7" customHeight="1">
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="5:7" ht="19">
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" s="4" t="s">
+    </row>
+    <row r="45" spans="5:7" ht="19">
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="42">
-      <c r="E42" s="3" t="n">
-        <v>170.87</v>
-      </c>
-      <c r="F42" s="6" t="s">
+    <row r="46" spans="5:7" ht="19">
+      <c r="F46" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" s="4" t="s">
+    </row>
+    <row r="47" spans="5:7" ht="19">
+      <c r="F47" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="7" outlineLevel="0" r="43">
-      <c r="F43" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="44">
-      <c r="E44" s="3" t="n">
-        <v>325</v>
-      </c>
-      <c r="F44" s="6" t="s">
+    <row r="48" spans="5:7" ht="19">
+      <c r="F48" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" s="4" t="s">
+    </row>
+    <row r="49" spans="4:7" ht="19">
+      <c r="F49" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="45">
-      <c r="E45" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="F45" s="6" t="s">
+    <row r="50" spans="4:7" ht="19">
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="46">
-      <c r="F46" s="6" t="s">
+    </row>
+    <row r="51" spans="4:7" ht="19">
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="47">
-      <c r="F47" s="6" t="s">
+    </row>
+    <row r="53" spans="4:7" ht="19">
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="48">
-      <c r="F48" s="6" t="s">
+    </row>
+    <row r="54" spans="4:7" ht="19">
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="49">
-      <c r="F49" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="50">
-      <c r="E50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="51">
-      <c r="E51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="53">
-      <c r="E53" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="54">
-      <c r="E54" s="3" t="n">
-        <v>173.75</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="56" s="4">
+    </row>
+    <row r="56" spans="4:7" s="4" customFormat="1" ht="16">
       <c r="D56" s="2"/>
       <c r="G56" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="57">
+    <row r="57" spans="4:7" ht="19">
       <c r="F57" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="58">
-      <c r="E58" s="3" t="inlineStr">
-        <f aca="false">E31-SUM(E32:E50)+E51-SUM(E52:E57)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F58" s="9" t="inlineStr">
-        <f aca="false">E58</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="59">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" ht="19">
+      <c r="E58" s="3">
+        <f>E31-SUM(E32:E50)+E51-SUM(E52:E57)</f>
+        <v>436.88</v>
+      </c>
+      <c r="F58" s="9">
+        <f>E58</f>
+        <v>436.88</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" ht="19">
       <c r="F59" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="60">
+    <row r="60" spans="4:7" ht="19">
       <c r="F60" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="61">
+    <row r="61" spans="4:7" ht="19">
       <c r="F61" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="62">
+    <row r="62" spans="4:7" ht="19">
       <c r="F62" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" ht="19">
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="4:7" ht="19">
+      <c r="F64" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" ht="19">
+      <c r="F65" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" ht="19">
+      <c r="F66" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" ht="19">
+      <c r="F68" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" ht="19">
+      <c r="F70" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="63">
-      <c r="F63" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="64">
-      <c r="F64" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="65">
-      <c r="F65" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="66">
-      <c r="F66" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="68">
-      <c r="F68" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="70">
-      <c r="F70" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.9450980392157"/>
+    <col min="1" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.9450980392157"/>
+    <col min="1" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>$2,775.71 - 30.00% OMF</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>For Feb</t>
+  </si>
+  <si>
+    <t>walmart</t>
   </si>
 </sst>
 </file>
@@ -279,7 +282,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="TableStyleLight1" xfId="1" customBuiltin="1"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -678,11 +681,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IW70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="10.83203125" style="2"/>
@@ -1008,7 +1011,7 @@
     </row>
     <row r="44" spans="5:7" ht="19">
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>38</v>
@@ -1068,13 +1071,16 @@
     </row>
     <row r="54" spans="4:7" ht="19">
       <c r="E54" s="3">
-        <v>0</v>
+        <v>43.14</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="4:7" s="4" customFormat="1" ht="16">
+      <c r="G54" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" s="4" customFormat="1">
       <c r="D56" s="2"/>
       <c r="G56" s="5"/>
     </row>
@@ -1086,11 +1092,11 @@
     <row r="58" spans="4:7" ht="19">
       <c r="E58" s="3">
         <f>E31-SUM(E32:E50)+E51-SUM(E52:E57)</f>
-        <v>436.88</v>
+        <v>293.74</v>
       </c>
       <c r="F58" s="9">
         <f>E58</f>
-        <v>436.88</v>
+        <v>293.74</v>
       </c>
     </row>
     <row r="59" spans="4:7" ht="19">
@@ -1162,7 +1168,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="257" width="10.83203125" style="4"/>
   </cols>
@@ -1187,7 +1193,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="257" width="10.83203125" style="4"/>
   </cols>

--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="11160" yWindow="0" windowWidth="20900" windowHeight="21780"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>$2,775.71 - 30.00% OMF</t>
   </si>
@@ -122,14 +126,13 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">$265.00 - CarmaxRed (mid) 17th</t>
+      <t>$265.00 - CarmaxRed (mid) 17th</t>
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
         <rFont val="HelveticaNeue"/>
-        <family val="0"/>
-        <sz val="16"/>
-        <vertAlign val="superscript"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -204,56 +207,40 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="GENERAL" numFmtId="165"/>
-    <numFmt formatCode="\$#,##0.00" numFmtId="166"/>
-    <numFmt formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00" numFmtId="167"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="16"/>
+      <name val="HelveticaNeue"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="00FF0000"/>
-      <sz val="13"/>
+      <sz val="16"/>
+      <color rgb="FF376092"/>
+      <name val="HelveticaNeue"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
+      <sz val="16"/>
       <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <color rgb="00376092"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <sz val="16"/>
-      <vertAlign val="superscript"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,7 +252,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -273,60 +260,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="167" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="167" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="TableStyleLight1" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -385,255 +344,557 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="D2:G70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:IW70"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="10.8901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.8901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="10.8901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="58.1176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="34.6745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="4" width="10.8901960784314"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="57.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="2">
-      <c r="E2" s="3" t="n">
+    <row r="2" spans="5:6" ht="19">
+      <c r="E2" s="3">
         <v>2641.32</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="3">
-      <c r="E3" s="3" t="n">
+    <row r="3" spans="5:6" ht="19">
+      <c r="E3" s="3">
         <v>4850</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="4">
-      <c r="E4" s="3" t="n">
+    <row r="4" spans="5:6" ht="19">
+      <c r="E4" s="3">
         <v>7810.32</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="5">
-      <c r="E5" s="3" t="n">
+    <row r="5" spans="5:6" ht="19">
+      <c r="E5" s="3">
         <v>7991.74</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="6">
-      <c r="E6" s="3" t="n">
+    <row r="6" spans="5:6" ht="19">
+      <c r="E6" s="3">
         <v>119541.69</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="7">
-      <c r="E7" s="3" t="n">
+    <row r="7" spans="5:6" ht="19">
+      <c r="E7" s="3">
         <v>14791.23</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="8">
-      <c r="E8" s="3" t="n">
-        <v>4437.4</v>
+    <row r="8" spans="5:6" ht="19">
+      <c r="E8" s="3">
+        <v>4437.3999999999996</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="9">
+    <row r="9" spans="5:6" ht="19">
       <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="10">
-      <c r="E10" s="3" t="inlineStr">
-        <f aca="false">SUM(E2:E8)</f>
-        <is>
-          <t/>
-        </is>
+    <row r="10" spans="5:6" ht="19">
+      <c r="E10" s="3">
+        <f>SUM(E2:E8)</f>
+        <v>162063.70000000001</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="11">
+    <row r="11" spans="5:6" ht="19">
       <c r="F11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="12">
+    <row r="12" spans="5:6" ht="19">
       <c r="F12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="13">
+    <row r="13" spans="5:6" ht="19">
       <c r="F13" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="14">
-      <c r="E14" s="3" t="inlineStr">
-        <f aca="false">SUM(E2:E8)</f>
-        <is>
-          <t/>
-        </is>
+    <row r="14" spans="5:6" ht="19">
+      <c r="E14" s="3">
+        <f>SUM(E2:E8)</f>
+        <v>162063.70000000001</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="15">
-      <c r="E15" s="3" t="inlineStr">
-        <f aca="false">E6</f>
-        <is>
-          <t/>
-        </is>
+    <row r="15" spans="5:6" ht="19">
+      <c r="E15" s="3">
+        <f>E6</f>
+        <v>119541.69</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="16">
+    <row r="16" spans="5:6" ht="19">
       <c r="F16" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="17">
-      <c r="E17" s="3" t="inlineStr">
-        <f aca="false">E14-E15</f>
-        <is>
-          <t/>
-        </is>
+    <row r="17" spans="4:7" ht="19">
+      <c r="E17" s="3">
+        <f>E14-E15</f>
+        <v>42522.010000000009</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="18">
-      <c r="E18" s="3" t="inlineStr">
-        <f aca="false">E7</f>
-        <is>
-          <t/>
-        </is>
+    <row r="18" spans="4:7" ht="19">
+      <c r="E18" s="3">
+        <f>E7</f>
+        <v>14791.23</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="19">
+    <row r="19" spans="4:7" ht="19">
       <c r="F19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="20">
+    <row r="20" spans="4:7" ht="19">
       <c r="F20" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="21">
-      <c r="E21" s="3" t="inlineStr">
-        <f aca="false">E17-E18</f>
-        <is>
-          <t/>
-        </is>
+    <row r="21" spans="4:7" ht="19">
+      <c r="E21" s="3">
+        <f>E17-E18</f>
+        <v>27730.78000000001</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="22">
-      <c r="E22" s="3" t="inlineStr">
-        <f aca="false">E2</f>
-        <is>
-          <t/>
-        </is>
+    <row r="22" spans="4:7" ht="19">
+      <c r="E22" s="3">
+        <f>E2</f>
+        <v>2641.32</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="23">
-      <c r="E23" s="3" t="inlineStr">
-        <f aca="false">E3</f>
-        <is>
-          <t/>
-        </is>
+    <row r="23" spans="4:7" ht="19">
+      <c r="E23" s="3">
+        <f>E3</f>
+        <v>4850</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="24">
-      <c r="E24" s="3" t="inlineStr">
-        <f aca="false">E4</f>
-        <is>
-          <t/>
-        </is>
+    <row r="24" spans="4:7" ht="19">
+      <c r="E24" s="3">
+        <f>E4</f>
+        <v>7810.32</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="25">
-      <c r="E25" s="3" t="inlineStr">
-        <f aca="false">E5</f>
-        <is>
-          <t/>
-        </is>
+    <row r="25" spans="4:7" ht="19">
+      <c r="E25" s="3">
+        <f>E5</f>
+        <v>7991.74</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="26">
-      <c r="E26" s="3" t="inlineStr">
-        <f aca="false">E8</f>
-        <is>
-          <t/>
-        </is>
+    <row r="26" spans="4:7" ht="19">
+      <c r="E26" s="3">
+        <f>E8</f>
+        <v>4437.3999999999996</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="27">
+    <row r="27" spans="4:7" ht="19">
       <c r="F27" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="28">
+    <row r="28" spans="4:7" ht="19">
       <c r="F28" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="29">
+    <row r="29" spans="4:7" ht="19">
       <c r="F29" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="30">
+    <row r="30" spans="4:7" ht="19">
       <c r="D30" s="7" t="s">
         <v>23</v>
       </c>
@@ -644,32 +905,38 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="31">
-      <c r="E31" s="3" t="n">
-        <v>566.88</v>
+    <row r="31" spans="4:7" ht="19">
+      <c r="E31" s="3">
+        <v>2642.36</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="32">
-      <c r="E32" s="3" t="n">
-        <v>0</v>
+    <row r="32" spans="4:7" ht="19">
+      <c r="E32" s="3">
+        <v>1136.69</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="33">
-      <c r="E33" s="3" t="n">
-        <v>0</v>
+      <c r="G32" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" ht="19">
+      <c r="E33" s="3">
+        <v>1122.31</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="34">
-      <c r="E34" s="3" t="n">
+      <c r="G33" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" ht="19">
+      <c r="E34" s="3">
         <v>130</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -679,135 +946,135 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="35">
-      <c r="E35" s="3" t="n">
+    <row r="35" spans="5:7" ht="19">
+      <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="36">
-      <c r="E36" s="3" t="n">
+    <row r="36" spans="5:7" ht="19">
+      <c r="E36" s="3">
         <v>0</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="37">
-      <c r="E37" s="3" t="n">
+    <row r="37" spans="5:7" ht="19">
+      <c r="E37" s="3">
         <v>0</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="38">
-      <c r="E38" s="3" t="n">
+    <row r="38" spans="5:7" ht="21">
+      <c r="E38" s="3">
         <v>0</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="39">
-      <c r="E39" s="3" t="n">
+    <row r="39" spans="5:7" ht="19">
+      <c r="E39" s="3">
         <v>0</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="40">
-      <c r="E40" s="3" t="n">
+    <row r="40" spans="5:7" ht="19">
+      <c r="E40" s="3">
         <v>0</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="41">
-      <c r="E41" s="3" t="n">
+    <row r="41" spans="5:7" ht="19">
+      <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="42">
-      <c r="E42" s="3" t="n">
+    <row r="42" spans="5:7" ht="19">
+      <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="7" outlineLevel="0" r="43">
+    <row r="43" spans="5:7" ht="7" customHeight="1">
       <c r="F43" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="44">
-      <c r="E44" s="3" t="n">
+    <row r="44" spans="5:7" ht="19">
+      <c r="E44" s="3">
         <v>100</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="45">
-      <c r="E45" s="3" t="n">
+    <row r="45" spans="5:7" ht="19">
+      <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="46">
+    <row r="46" spans="5:7" ht="19">
       <c r="F46" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="47">
+    <row r="47" spans="5:7" ht="19">
       <c r="F47" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="48">
+    <row r="48" spans="5:7" ht="19">
       <c r="F48" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="49">
+    <row r="49" spans="4:7" ht="19">
       <c r="F49" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="50">
-      <c r="E50" s="3" t="n">
+    <row r="50" spans="4:7" ht="19">
+      <c r="E50" s="3">
         <v>0</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="51">
-      <c r="E51" s="3" t="n">
+    <row r="51" spans="4:7" ht="19">
+      <c r="E51" s="3">
         <v>0</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="53">
-      <c r="E53" s="3" t="n">
+    <row r="53" spans="4:7" ht="19">
+      <c r="E53" s="3">
         <v>0</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="54">
-      <c r="E54" s="3" t="n">
+    <row r="54" spans="4:7" ht="19">
+      <c r="E54" s="3">
         <v>105.58</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -817,134 +1084,134 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="56" s="4">
+    <row r="56" spans="4:7" s="4" customFormat="1">
       <c r="D56" s="2"/>
       <c r="G56" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="57">
+    <row r="57" spans="4:7" ht="19">
       <c r="F57" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="58">
-      <c r="E58" s="3" t="inlineStr">
-        <f aca="false">E31-SUM(E32:E50)+E51-SUM(E52:E57)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F58" s="9" t="inlineStr">
-        <f aca="false">E58</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="59">
+    <row r="58" spans="4:7" ht="19">
+      <c r="E58" s="3">
+        <f>E31-SUM(E32:E50)+E51-SUM(E52:E57)</f>
+        <v>47.780000000000129</v>
+      </c>
+      <c r="F58" s="9">
+        <f>E58</f>
+        <v>47.780000000000129</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" ht="19">
       <c r="F59" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="60">
+    <row r="60" spans="4:7" ht="19">
       <c r="F60" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="61">
+    <row r="61" spans="4:7" ht="19">
       <c r="F61" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="62">
+    <row r="62" spans="4:7" ht="19">
       <c r="F62" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="63">
+    <row r="63" spans="4:7" ht="19">
       <c r="F63" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="64">
+    <row r="64" spans="4:7" ht="19">
       <c r="F64" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="65">
+    <row r="65" spans="6:6" ht="19">
       <c r="F65" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="66">
+    <row r="66" spans="6:6" ht="19">
       <c r="F66" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="68">
+    <row r="68" spans="6:6" ht="19">
       <c r="F68" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="70">
+    <row r="70" spans="6:6" ht="19">
       <c r="F70" s="6" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.8901960784314"/>
+    <col min="1" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.8901960784314"/>
+    <col min="1" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="0" windowWidth="20900" windowHeight="21780"/>
+    <workbookView xWindow="10160" yWindow="0" windowWidth="20900" windowHeight="21780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>$2,775.71 - 30.00% OMF</t>
   </si>
@@ -180,9 +180,6 @@
     <t>- individual expenses</t>
   </si>
   <si>
-    <t>walmart, waffle house, Onaska</t>
-  </si>
-  <si>
     <t>/------- Projected Total</t>
   </si>
   <si>
@@ -202,6 +199,12 @@
   </si>
   <si>
     <t>On Feb. 14th</t>
+  </si>
+  <si>
+    <t>walmart, waffle house, Onaska, turbo tax, Van Loc Vietnamese Rest, Bon Baguette</t>
+  </si>
+  <si>
+    <t>* Paid by Cash</t>
   </si>
 </sst>
 </file>
@@ -212,7 +215,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -242,6 +245,20 @@
       <sz val="16"/>
       <name val="HelveticaNeue"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -260,9 +277,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -280,7 +299,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
@@ -681,7 +702,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IW70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
@@ -689,7 +712,7 @@
     <col min="4" max="4" width="10.83203125" style="2"/>
     <col min="5" max="5" width="10.83203125" style="3"/>
     <col min="6" max="6" width="57.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" style="5" customWidth="1"/>
     <col min="8" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -907,7 +930,7 @@
     </row>
     <row r="31" spans="4:7" ht="19">
       <c r="E31" s="3">
-        <v>2642.36</v>
+        <v>2742.55</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>26</v>
@@ -953,6 +976,9 @@
       <c r="F35" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="G35" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="36" spans="5:7" ht="19">
       <c r="E36" s="3">
@@ -1075,13 +1101,13 @@
     </row>
     <row r="54" spans="4:7" ht="19">
       <c r="E54" s="3">
-        <v>105.58</v>
+        <v>172.07</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="4:7" s="4" customFormat="1">
@@ -1090,17 +1116,17 @@
     </row>
     <row r="57" spans="4:7" ht="19">
       <c r="F57" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="4:7" ht="19">
       <c r="E58" s="3">
         <f>E31-SUM(E32:E50)+E51-SUM(E52:E57)</f>
-        <v>47.780000000000129</v>
+        <v>81.480000000000189</v>
       </c>
       <c r="F58" s="9">
         <f>E58</f>
-        <v>47.780000000000129</v>
+        <v>81.480000000000189</v>
       </c>
     </row>
     <row r="59" spans="4:7" ht="19">
@@ -1120,7 +1146,7 @@
     </row>
     <row r="62" spans="4:7" ht="19">
       <c r="F62" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="4:7" ht="19">
@@ -1128,32 +1154,32 @@
     </row>
     <row r="64" spans="4:7" ht="19">
       <c r="F64" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="6:6" ht="19">
       <c r="F65" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="6:6" ht="19">
       <c r="F66" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="6:6" ht="19">
       <c r="F68" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="6:6" ht="19">
       <c r="F70" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>$2,775.71 - 30.00% OMF</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>On Feb. 14th</t>
-  </si>
-  <si>
-    <t>walmart, waffle house, Onaska, turbo tax, Van Loc Vietnamese Rest, Bon Baguette</t>
   </si>
   <si>
     <t>* Paid by Cash</t>
@@ -702,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IW70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -930,7 +927,7 @@
     </row>
     <row r="31" spans="4:7" ht="19">
       <c r="E31" s="3">
-        <v>2742.55</v>
+        <v>4578.57</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>26</v>
@@ -977,7 +974,7 @@
         <v>31</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="5:7" ht="19">
@@ -990,7 +987,7 @@
     </row>
     <row r="37" spans="5:7" ht="19">
       <c r="E37" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>33</v>
@@ -998,23 +995,29 @@
     </row>
     <row r="38" spans="5:7" ht="21">
       <c r="E38" s="3">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="G38" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="5:7" ht="19">
       <c r="E39" s="3">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="G39" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="40" spans="5:7" ht="19">
       <c r="E40" s="3">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>36</v>
@@ -1022,7 +1025,7 @@
     </row>
     <row r="41" spans="5:7" ht="19">
       <c r="E41" s="3">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>37</v>
@@ -1030,10 +1033,13 @@
     </row>
     <row r="42" spans="5:7" ht="19">
       <c r="E42" s="3">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>38</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="5:7" ht="7" customHeight="1">
@@ -1049,7 +1055,7 @@
     </row>
     <row r="45" spans="5:7" ht="19">
       <c r="E45" s="3">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>40</v>
@@ -1070,12 +1076,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="4:7" ht="19">
+    <row r="49" spans="1:7" ht="19">
       <c r="F49" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="4:7" ht="19">
+    <row r="50" spans="1:7" ht="19">
       <c r="E50" s="3">
         <v>0</v>
       </c>
@@ -1083,7 +1089,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="4:7" ht="19">
+    <row r="51" spans="1:7" ht="19">
       <c r="E51" s="3">
         <v>0</v>
       </c>
@@ -1091,7 +1097,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="4:7" ht="19">
+    <row r="53" spans="1:7" ht="19">
       <c r="E53" s="3">
         <v>0</v>
       </c>
@@ -1099,60 +1105,58 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="19">
+    <row r="54" spans="1:7" ht="19">
       <c r="E54" s="3">
-        <v>172.07</v>
+        <v>0</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="4:7" s="4" customFormat="1">
+    </row>
+    <row r="56" spans="1:7" s="4" customFormat="1">
       <c r="D56" s="2"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="4:7" ht="19">
+    <row r="57" spans="1:7" ht="19">
       <c r="F57" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="4:7" ht="19">
+    <row r="58" spans="1:7" ht="19">
       <c r="E58" s="3">
         <f>E31-SUM(E32:E50)+E51-SUM(E52:E57)</f>
-        <v>81.480000000000189</v>
+        <v>899.56999999999971</v>
       </c>
       <c r="F58" s="9">
         <f>E58</f>
-        <v>81.480000000000189</v>
-      </c>
-    </row>
-    <row r="59" spans="4:7" ht="19">
+        <v>899.56999999999971</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="19">
       <c r="F59" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="19">
+    <row r="60" spans="1:7" ht="19">
       <c r="F60" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="4:7" ht="19">
+    <row r="61" spans="1:7" ht="19">
+      <c r="A61" s="4"/>
       <c r="F61" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="4:7" ht="19">
+    <row r="62" spans="1:7" ht="19">
       <c r="F62" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="4:7" ht="19">
+    <row r="63" spans="1:7" ht="19">
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="4:7" ht="19">
+    <row r="64" spans="1:7" ht="19">
       <c r="F64" s="6" t="s">
         <v>51</v>
       </c>

--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>$2,641.32 - 30.00% OMF</t>
   </si>
@@ -94,7 +94,7 @@
     <t>TODAY,</t>
   </si>
   <si>
-    <t>For Feb</t>
+    <t>For March</t>
   </si>
   <si>
     <t>At Bank</t>
@@ -103,13 +103,13 @@
     <t>$1100.00 - Marquis Rent 1st</t>
   </si>
   <si>
+    <t>$1125.00 - Mortgage (beg) 1st</t>
+  </si>
+  <si>
+    <t>$130.00 - OMF 1st</t>
+  </si>
+  <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>$1125.00 - Mortgage (beg) 1st</t>
-  </si>
-  <si>
-    <t>$130.00 - OMF 1st</t>
   </si>
   <si>
     <t>$150.00 - Nelnet (beg) 8th</t>
@@ -138,18 +138,12 @@
     <t>$71.00 - Conns (mid) Couches) 20th</t>
   </si>
   <si>
-    <t>Paid by Cash *</t>
-  </si>
-  <si>
     <t>$171.00 - CarmaxSilver (mid) 21st</t>
   </si>
   <si>
     <t>$100.00 – CapitalOne (beg)</t>
   </si>
   <si>
-    <t>DGKKVMBBBF *</t>
-  </si>
-  <si>
     <t>$350.00 - Bank of America (beg)</t>
   </si>
   <si>
@@ -174,34 +168,19 @@
     <t>*other income</t>
   </si>
   <si>
-    <t>milas</t>
+    <t>cracker barrel</t>
   </si>
   <si>
     <t>- individual expenses</t>
   </si>
   <si>
-    <t>parking</t>
-  </si>
-  <si>
-    <t>Gas Smart</t>
-  </si>
-  <si>
-    <t>Gas Cobalt</t>
-  </si>
-  <si>
     <t>/------- Projected Total</t>
   </si>
   <si>
-    <t>work lunch</t>
-  </si>
-  <si>
-    <t>Verizon</t>
-  </si>
-  <si>
     <t>On Clear Block</t>
   </si>
   <si>
-    <t>$2640.00 OMF</t>
+    <t>$2560.61 OMF</t>
   </si>
   <si>
     <t>+++ -To clear $2640.00</t>
@@ -341,7 +320,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in TableStyleLight1" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20"/>
     <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Normal" xfId="15"/>
   </cellStyles>
   <colors>
@@ -419,12 +398,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="10.9450980392157"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9450980392157"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="10.9450980392157"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="58.4078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="30.9686274509804"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="4" width="10.9450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="59.2862745098039"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="31.4274509803922"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="4" width="11.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="2">
@@ -664,7 +643,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="31">
       <c r="E31" s="3" t="n">
-        <v>4578.57</v>
+        <v>182.19</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>26</v>
@@ -672,73 +651,58 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="32">
       <c r="E32" s="3" t="n">
-        <v>1136.69</v>
+        <v>0</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="33">
       <c r="E33" s="3" t="n">
-        <v>1122.31</v>
+        <v>0</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="34">
       <c r="E34" s="3" t="n">
-        <v>275.32</v>
+        <v>130</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="35">
       <c r="E35" s="3" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="36">
       <c r="E36" s="3" t="n">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="37">
       <c r="E37" s="3" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="38">
       <c r="E38" s="3" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>34</v>
@@ -751,19 +715,13 @@
       <c r="F39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="40">
       <c r="E40" s="3" t="n">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="7" outlineLevel="0" r="41">
@@ -771,50 +729,38 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="42">
       <c r="E42" s="3" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="43">
       <c r="E43" s="3" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="44">
       <c r="F44" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="45">
       <c r="F45" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="46">
       <c r="F46" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="47">
       <c r="F47" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="48">
@@ -822,79 +768,53 @@
         <v>0</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="49">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E49" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="50">
       <c r="A50" s="1" t="n">
         <f aca="false">SUM(A51:A98)</f>
-        <v>292.45</v>
+        <v>28.87</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="51">
+      <c r="A51" s="1" t="n">
+        <v>28.87</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F51" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="52">
-      <c r="A52" s="1" t="n">
-        <v>50.91</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="E52" s="3" t="n">
+        <v>28.87</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="54" s="4">
+      <c r="D54" s="2"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="55">
+      <c r="F55" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="3" t="n">
-        <v>292.45</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="53">
-      <c r="A53" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="54">
-      <c r="A54" s="4" t="n">
-        <v>16.59</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="55">
-      <c r="A55" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="56">
-      <c r="A56" s="1" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E56" s="3" t="inlineStr">
         <f aca="false">E31-SUM(E32:E48)+E49-SUM(E50:E55)</f>
         <is>
@@ -909,12 +829,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="57">
-      <c r="A57" s="1" t="n">
-        <v>168.45</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F57" s="6" t="s">
         <v>9</v>
       </c>
@@ -932,7 +846,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="60">
       <c r="F60" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="61">
@@ -940,9 +854,8 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="62">
       <c r="A62" s="3"/>
-      <c r="B62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="63">
@@ -950,17 +863,17 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="64">
       <c r="F64" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="66">
       <c r="F66" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="68">
       <c r="F68" s="10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +899,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.9450980392157"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="11.1058823529412"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1011,7 +924,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="10.9450980392157"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="11.1058823529412"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="2260" yWindow="20" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>$2,641.32 - 30.00% OMF</t>
   </si>
@@ -116,14 +120,13 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">$265.00 - CarmaxRed (mid) 17th</t>
+      <t>$265.00 - CarmaxRed (mid) 17th</t>
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
         <rFont val="HelveticaNeue"/>
-        <family val="0"/>
-        <sz val="16"/>
-        <vertAlign val="superscript"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -132,9 +135,6 @@
     <t>$77.00 - Conns (mid) (Bed) 18th</t>
   </si>
   <si>
-    <t>$224.00 - Farmers (mid) 19th</t>
-  </si>
-  <si>
     <t>$71.00 - Conns (mid) Couches) 20th</t>
   </si>
   <si>
@@ -186,64 +186,87 @@
     <t>+++ -To clear $2640.00</t>
   </si>
   <si>
-    <t>On Feb. 28th</t>
-  </si>
-  <si>
     <t>On Mar. 14th</t>
+  </si>
+  <si>
+    <t>katz</t>
+  </si>
+  <si>
+    <t>sushi</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>On Mar. 28th</t>
+  </si>
+  <si>
+    <t>discount tire</t>
+  </si>
+  <si>
+    <t>$208.50 - Farmers (mid) 19th</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="\$#,##0.00" numFmtId="165"/>
-    <numFmt formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00" numFmtId="166"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="16"/>
+      <name val="HelveticaNeue"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF376092"/>
+      <name val="HelveticaNeue"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="16"/>
+      <name val="HelveticaNeue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="00FF0000"/>
-      <sz val="13"/>
     </font>
     <font>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <color rgb="00376092"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
-      <sz val="16"/>
-      <vertAlign val="superscript"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,75 +277,59 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+  <borders count="2">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="21"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Normal" xfId="15"/>
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -381,73 +388,399 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:G68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:IW68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="59.2862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="31.4274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="4" width="11.1058823529412"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="14.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="59.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="2">
-      <c r="E2" s="3" t="n">
+    <row r="2" spans="5:7" ht="19">
+      <c r="E2" s="3">
         <v>2496</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="3">
-      <c r="E3" s="3" t="n">
+    <row r="3" spans="5:7" ht="19">
+      <c r="E3" s="3">
         <v>4850</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="4">
-      <c r="E4" s="3" t="n">
+    <row r="4" spans="5:7" ht="19">
+      <c r="E4" s="3">
         <v>7601.87</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="5">
-      <c r="E5" s="3" t="n">
+    <row r="5" spans="5:7" ht="19">
+      <c r="E5" s="3">
         <v>7872.5</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="6">
-      <c r="E6" s="3" t="n">
+    <row r="6" spans="5:7" ht="19">
+      <c r="E6" s="3">
         <v>119541.69</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="7">
-      <c r="E7" s="3" t="n">
+    <row r="7" spans="5:7" ht="19">
+      <c r="E7" s="3">
         <v>14791.23</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -455,182 +788,160 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="8">
-      <c r="E8" s="3" t="n">
+    <row r="8" spans="5:7" ht="19">
+      <c r="E8" s="3">
         <v>3151.46</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="9">
+    <row r="9" spans="5:7" ht="19">
       <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="10">
-      <c r="E10" s="3" t="inlineStr">
-        <f aca="false">SUM(E2:E8)</f>
-        <is>
-          <t/>
-        </is>
+    <row r="10" spans="5:7" ht="19">
+      <c r="E10" s="3">
+        <f>SUM(E2:E8)</f>
+        <v>160304.75</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="11">
+    <row r="11" spans="5:7" ht="19">
       <c r="F11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="12">
+    <row r="12" spans="5:7" ht="19">
       <c r="F12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="13">
+    <row r="13" spans="5:7" ht="19">
       <c r="F13" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="14">
-      <c r="E14" s="3" t="inlineStr">
-        <f aca="false">SUM(E2:E8)</f>
-        <is>
-          <t/>
-        </is>
+    <row r="14" spans="5:7" ht="19">
+      <c r="E14" s="3">
+        <f>SUM(E2:E8)</f>
+        <v>160304.75</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="15">
-      <c r="E15" s="3" t="inlineStr">
-        <f aca="false">E6</f>
-        <is>
-          <t/>
-        </is>
+    <row r="15" spans="5:7" ht="19">
+      <c r="E15" s="3">
+        <f>E6</f>
+        <v>119541.69</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="16">
+    <row r="16" spans="5:7" ht="19">
       <c r="F16" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="17">
-      <c r="E17" s="3" t="inlineStr">
-        <f aca="false">E14-E15</f>
-        <is>
-          <t/>
-        </is>
+    <row r="17" spans="4:7" ht="19">
+      <c r="E17" s="3">
+        <f>E14-E15</f>
+        <v>40763.06</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="18">
-      <c r="E18" s="3" t="inlineStr">
-        <f aca="false">E7</f>
-        <is>
-          <t/>
-        </is>
+    <row r="18" spans="4:7" ht="19">
+      <c r="E18" s="3">
+        <f>E7</f>
+        <v>14791.23</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="19">
+    <row r="19" spans="4:7" ht="19">
       <c r="F19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="20">
+    <row r="20" spans="4:7" ht="19">
       <c r="F20" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="21">
-      <c r="E21" s="3" t="inlineStr">
-        <f aca="false">E17-E18</f>
-        <is>
-          <t/>
-        </is>
+    <row r="21" spans="4:7" ht="19">
+      <c r="E21" s="3">
+        <f>E17-E18</f>
+        <v>25971.829999999998</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="22">
-      <c r="E22" s="3" t="inlineStr">
-        <f aca="false">E2</f>
-        <is>
-          <t/>
-        </is>
+    <row r="22" spans="4:7" ht="19">
+      <c r="E22" s="3">
+        <f>E2</f>
+        <v>2496</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="23">
-      <c r="E23" s="3" t="inlineStr">
-        <f aca="false">E3</f>
-        <is>
-          <t/>
-        </is>
+    <row r="23" spans="4:7" ht="19">
+      <c r="E23" s="3">
+        <f>E3</f>
+        <v>4850</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="24">
-      <c r="E24" s="3" t="inlineStr">
-        <f aca="false">E4</f>
-        <is>
-          <t/>
-        </is>
+    <row r="24" spans="4:7" ht="19">
+      <c r="E24" s="3">
+        <f>E4</f>
+        <v>7601.87</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="25">
-      <c r="E25" s="3" t="inlineStr">
-        <f aca="false">E5</f>
-        <is>
-          <t/>
-        </is>
+    <row r="25" spans="4:7" ht="19">
+      <c r="E25" s="3">
+        <f>E5</f>
+        <v>7872.5</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="26">
-      <c r="E26" s="3" t="inlineStr">
-        <f aca="false">E8</f>
-        <is>
-          <t/>
-        </is>
+    <row r="26" spans="4:7" ht="19">
+      <c r="E26" s="3">
+        <f>E8</f>
+        <v>3151.46</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="27">
+    <row r="27" spans="4:7" ht="19">
       <c r="F27" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="28">
+    <row r="28" spans="4:7" ht="19">
       <c r="F28" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="29">
+    <row r="29" spans="4:7" ht="19">
       <c r="F29" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="30">
+    <row r="30" spans="4:7" ht="19">
       <c r="D30" s="7" t="s">
         <v>23</v>
       </c>
@@ -641,32 +952,38 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="31">
-      <c r="E31" s="3" t="n">
-        <v>182.19</v>
+    <row r="31" spans="4:7" ht="19">
+      <c r="E31" s="3">
+        <v>2257.6799999999998</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="32">
-      <c r="E32" s="3" t="n">
-        <v>0</v>
+    <row r="32" spans="4:7" ht="19">
+      <c r="E32" s="3">
+        <v>1120</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="33">
-      <c r="E33" s="3" t="n">
-        <v>0</v>
+      <c r="G32" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" ht="19">
+      <c r="E33" s="3">
+        <v>1122.31</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="34">
-      <c r="E34" s="3" t="n">
+      <c r="G33" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" ht="19">
+      <c r="E34" s="3">
         <v>130</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -676,263 +993,302 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="35">
-      <c r="E35" s="3" t="n">
-        <v>0</v>
+    <row r="35" spans="5:7" ht="19">
+      <c r="E35" s="3">
+        <v>150</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="36">
-      <c r="E36" s="3" t="n">
+      <c r="G35" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" ht="21">
+      <c r="E36" s="3">
         <v>0</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="37">
-      <c r="E37" s="3" t="n">
+    <row r="37" spans="5:7" ht="19">
+      <c r="E37" s="3">
         <v>0</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="38">
-      <c r="E38" s="3" t="n">
+    <row r="38" spans="5:7" ht="19">
+      <c r="E38" s="3">
         <v>0</v>
       </c>
       <c r="F38" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" ht="19">
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="39">
-      <c r="E39" s="3" t="n">
+    <row r="40" spans="5:7" ht="19">
+      <c r="E40" s="3">
         <v>0</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="40">
-      <c r="E40" s="3" t="n">
+    <row r="41" spans="5:7" ht="7" customHeight="1">
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="5:7" ht="19">
+      <c r="E42" s="3">
+        <v>500</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" ht="19">
+      <c r="E43" s="3">
+        <v>150</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7" ht="19">
+      <c r="F44" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" ht="19">
+      <c r="F45" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" ht="19">
+      <c r="F46" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7" ht="19">
+      <c r="F47" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7" ht="19">
+      <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F48" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="19">
+      <c r="A49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1643.43</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="11">
+        <f>SUM(A51:A98)</f>
+        <v>128.73000000000002</v>
+      </c>
+      <c r="B50" s="11"/>
+    </row>
+    <row r="51" spans="1:7" ht="19">
+      <c r="A51" s="1">
+        <v>28.87</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" ht="19">
+      <c r="A52" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="7" outlineLevel="0" r="41">
-      <c r="F41" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="42">
-      <c r="E42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="43">
-      <c r="E43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="44">
-      <c r="F44" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="45">
-      <c r="F45" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="46">
-      <c r="F46" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="47">
-      <c r="F47" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="48">
-      <c r="E48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="49">
-      <c r="A49" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="50">
-      <c r="A50" s="1" t="n">
-        <f aca="false">SUM(A51:A98)</f>
-        <v>28.87</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="51">
-      <c r="A51" s="1" t="n">
-        <v>28.87</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="3">
+        <v>128.72999999999999</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="52">
-      <c r="E52" s="3" t="n">
-        <v>28.87</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="54" s="4">
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>15.27</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="4" customFormat="1">
+      <c r="A54" s="4">
+        <v>30.59</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="G54" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="55">
+    <row r="55" spans="1:7" ht="19">
+      <c r="A55" s="1">
+        <v>18</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F55" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="56">
-      <c r="E56" s="3" t="inlineStr">
-        <f aca="false">E31-SUM(E32:E48)+E49-SUM(E50:E55)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F56" s="9" t="inlineStr">
-        <f aca="false">E56</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="57">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="19">
+      <c r="E56" s="3">
+        <f>E31-SUM(E32:E48)+E49-SUM(E50:E55)</f>
+        <v>600.06999999999994</v>
+      </c>
+      <c r="F56" s="9">
+        <f>E56</f>
+        <v>600.06999999999994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="19">
       <c r="F57" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="58">
+    <row r="58" spans="1:7" ht="19">
       <c r="F58" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="59">
+    <row r="59" spans="1:7" ht="19">
       <c r="A59" s="4"/>
       <c r="F59" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="60">
+    <row r="60" spans="1:7" ht="19">
       <c r="F60" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="61">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="19">
       <c r="F61" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="62">
+    <row r="62" spans="1:7" ht="19">
       <c r="A62" s="3"/>
       <c r="F62" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="19">
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" ht="19">
+      <c r="F64" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="63">
-      <c r="F63" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="64">
-      <c r="F64" s="6" t="s">
+    <row r="66" spans="6:6" ht="19">
+      <c r="F66" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="66">
-      <c r="F66" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20" outlineLevel="0" r="68">
+    <row r="68" spans="6:6" ht="19">
       <c r="F68" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="E56" emptyCellReference="1"/>
+  </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="11.1058823529412"/>
+    <col min="1" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="4" width="11.1058823529412"/>
+    <col min="1" max="257" width="10.83203125" style="4"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/budget_projections.xlsx
+++ b/budget_projections.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="20" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>$2,641.32 - 30.00% OMF</t>
   </si>
@@ -153,9 +153,6 @@
     <t>    |_ $175 Verizon (mid) {CC} 16th</t>
   </si>
   <si>
-    <t>    |_  $35 Comcast (internet) (mid) {CC} 24th</t>
-  </si>
-  <si>
     <t>    |_  $100 TXEnergy - light (beg) {CC} 25th</t>
   </si>
   <si>
@@ -205,6 +202,18 @@
   </si>
   <si>
     <t>$208.50 - Farmers (mid) 19th</t>
+  </si>
+  <si>
+    <t>field of green</t>
+  </si>
+  <si>
+    <t>HED</t>
+  </si>
+  <si>
+    <t>Golden Corral</t>
+  </si>
+  <si>
+    <t>    |_  $70 Comcast (internet) (mid) {CC} 24th</t>
   </si>
 </sst>
 </file>
@@ -725,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IW68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1025,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="5:7" ht="19">
@@ -1078,15 +1087,24 @@
       <c r="F45" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="G45" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="46" spans="5:7" ht="19">
       <c r="F46" s="6" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="5:7" ht="19">
       <c r="F47" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="5:7" ht="19">
@@ -1094,24 +1112,24 @@
         <v>0</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="19">
       <c r="A49" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E49" s="3">
         <v>1643.43</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="11">
         <f>SUM(A51:A98)</f>
-        <v>128.73000000000002</v>
+        <v>220.62000000000003</v>
       </c>
       <c r="B50" s="11"/>
     </row>
@@ -1120,7 +1138,7 @@
         <v>28.87</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" s="6"/>
     </row>
@@ -1129,13 +1147,14 @@
         <v>36</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E52" s="3">
-        <v>128.72999999999999</v>
+        <f>A50</f>
+        <v>220.62000000000003</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1143,7 +1162,7 @@
         <v>15.27</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="4" customFormat="1">
@@ -1151,7 +1170,7 @@
         <v>30.59</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D54" s="2"/>
       <c r="G54" s="5"/>
@@ -1161,28 +1180,46 @@
         <v>18</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="19">
+      <c r="A56" s="1">
+        <v>21.11</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="E56" s="3">
         <f>E31-SUM(E32:E48)+E49-SUM(E50:E55)</f>
-        <v>600.06999999999994</v>
+        <v>508.17999999999995</v>
       </c>
       <c r="F56" s="9">
         <f>E56</f>
-        <v>600.06999999999994</v>
+        <v>508.17999999999995</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="19">
+      <c r="A57" s="1">
+        <v>42.03</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F57" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="19">
+      <c r="A58" s="1">
+        <v>28.75</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F58" s="6" t="s">
         <v>9</v>
       </c>
@@ -1195,7 +1232,7 @@
     </row>
     <row r="60" spans="1:7" ht="19">
       <c r="F60" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="19">
@@ -1204,7 +1241,7 @@
     <row r="62" spans="1:7" ht="19">
       <c r="A62" s="3"/>
       <c r="F62" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="19">
@@ -1212,17 +1249,17 @@
     </row>
     <row r="64" spans="1:7" ht="19">
       <c r="F64" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="6:6" ht="19">
       <c r="F66" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="6:6" ht="19">
       <c r="F68" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
